--- a/ACADAMIC MONITORING TEAM 01.08.2023/TASKS/TEACHER ATTENDANCE/ALL TEACHERS IN SIMS AS ON 17082023.xlsx
+++ b/ACADAMIC MONITORING TEAM 01.08.2023/TASKS/TEACHER ATTENDANCE/ALL TEACHERS IN SIMS AS ON 17082023.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\ACADAMIC MONITORING TEAM 01.08.2023\TASKS\TEACHER ATTENDANCE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2108CE7F-AA52-4BD9-9711-651556A2B4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{78FEC8A5-8739-4627-AA67-F7741FCB0562}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -20,9 +14,10 @@
     <sheet name="MPPGOVTAIDED" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
     <sheet name="MANAGEMENT" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ALL TEACHERS'!$A$1:$I$172</definedName>
@@ -34,10 +29,10 @@
     <definedName name="SCHOOLS">[1]Sheet1!$B$3:$I$181</definedName>
     <definedName name="SIMSGOVT">'ALL TEACHERS'!$B$2:$I$163</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="11" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="1318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="1319">
   <si>
     <t>S.No.</t>
   </si>
@@ -4011,16 +4006,19 @@
   </si>
   <si>
     <t>Count of School Name</t>
+  </si>
+  <si>
+    <t>WORK ADJUSTMENTS OF G L PURAM MANDAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0000000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4119,6 +4117,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4146,7 +4160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4249,11 +4263,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4353,22 +4376,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4392,6 +4399,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9082,7 +9129,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="VASU" refreshedDate="45155.830038541666" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="158" xr:uid="{A767B1DF-0C29-4A84-ABD4-1CCC29ECF69B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="VASU" refreshedDate="45155.830038541666" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="158">
   <cacheSource type="worksheet">
     <worksheetSource ref="A10:W168" sheet="MANAGEMENT"/>
   </cacheSource>
@@ -9174,7 +9221,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="VASU" refreshedDate="45155.922463657407" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="171" xr:uid="{61321B65-EA64-44B2-AC58-3811426166A0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="45156.41802986111" createdVersion="7" refreshedVersion="4" minRefreshableVersion="3" recordCount="171">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I172" sheet="ALL TEACHERS"/>
   </cacheSource>
@@ -9186,12 +9233,13 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="116574" maxValue="1009395603"/>
     </cacheField>
     <cacheField name="School Name" numFmtId="0">
-      <sharedItems count="91">
+      <sharedItems count="92">
         <s v="MPPS ADDAMGUDA - 28120203501"/>
         <s v="MPPS ATCHABA - 28120209602"/>
         <s v="MPPS BAYYADA - 28120209801"/>
         <s v="MPPS BELLIDI - 28120212201"/>
         <s v="MPPS BUDDAMMAKHARJA - 28120212302"/>
+        <s v="MPPS CHINAGEESADA-28120208103"/>
         <s v="MPPS CHINTALAPADU - 28120212301"/>
         <s v="MPPS DADUPURAM-28120212202"/>
         <s v="MPPS DEPPIGUDA - 28120207202"/>
@@ -13263,7 +13311,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="171">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="171">
   <r>
     <n v="1"/>
     <n v="2224528"/>
@@ -13343,8 +13391,19 @@
   </r>
   <r>
     <n v="8"/>
+    <n v="2244411"/>
+    <x v="5"/>
+    <s v="ARIKA SARDHAR RAO - 2244411"/>
+    <s v="Secondary Grade Teacher/TGT"/>
+    <n v="6300906636"/>
+    <s v="MPP_ZPP SCHOOLS"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
     <n v="2224776"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="PODAVAKA VISWESWARARAO - 2224776"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492746481"/>
@@ -13353,9 +13412,9 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <n v="10"/>
     <n v="2240696"/>
-    <x v="5"/>
+    <x v="6"/>
     <s v="toyaka koti - 2240696"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8985385303"/>
@@ -13364,9 +13423,9 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <n v="11"/>
     <n v="1002251043"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="NIMMAKA RAMAKRISHANA - 1002251043"/>
     <s v="Secondary Grade Teacher(On MTS Basis)"/>
     <n v="9494012668"/>
@@ -13375,9 +13434,9 @@
     <m/>
   </r>
   <r>
-    <n v="11"/>
+    <n v="12"/>
     <n v="257693"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="shaik afiza - 0257693"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492725872"/>
@@ -13386,9 +13445,9 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <n v="13"/>
     <n v="2224272"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="Manimala Nandeda - 2224272"/>
     <s v="LFL Head Master"/>
     <n v="9704726165"/>
@@ -13397,9 +13456,9 @@
     <m/>
   </r>
   <r>
-    <n v="13"/>
+    <n v="14"/>
     <n v="2244745"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="Gowdu Narendra - 2244745"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492022443"/>
@@ -13408,9 +13467,9 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <n v="15"/>
     <n v="2246707"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="kondagorri subbamma kondagorri subbamma - 2246707"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8331994107"/>
@@ -13419,9 +13478,9 @@
     <s v="DEPUTATION"/>
   </r>
   <r>
-    <n v="15"/>
+    <n v="16"/>
     <n v="2224207"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="PALAKA DEVANAND - 2224207"/>
     <s v="LFL Head Master"/>
     <n v="9381270882"/>
@@ -13430,9 +13489,9 @@
     <m/>
   </r>
   <r>
-    <n v="16"/>
+    <n v="17"/>
     <n v="2229168"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="GOWDU GANESWARA RAO - 2229168"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9441381742"/>
@@ -13441,9 +13500,9 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <n v="18"/>
     <n v="2246998"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Jeelakarra Subbarao - 2246998"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494779417"/>
@@ -13452,9 +13511,9 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <n v="19"/>
     <n v="2224300"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v="pallerika Adinaryana - 2224300"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500902651"/>
@@ -13463,9 +13522,9 @@
     <m/>
   </r>
   <r>
-    <n v="19"/>
+    <n v="20"/>
     <n v="2244214"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v="chandaka satyam naidu - 2244214"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8985174704"/>
@@ -13474,9 +13533,9 @@
     <m/>
   </r>
   <r>
-    <n v="20"/>
+    <n v="21"/>
     <n v="2245051"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v="Mahadevu Sankara rao - 2245051"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7702398683"/>
@@ -13485,9 +13544,9 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <n v="22"/>
     <n v="2249733"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v="BIDDIKA KAMALA - 2249733"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494771725"/>
@@ -13496,9 +13555,9 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <n v="23"/>
     <n v="2224687"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="Jannimarri Saraswathi - 2224687"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491594217"/>
@@ -13507,9 +13566,9 @@
     <m/>
   </r>
   <r>
-    <n v="23"/>
+    <n v="26"/>
     <n v="2224774"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="Totapalli Dhanalakshmi - 2224774"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8985084391"/>
@@ -13518,9 +13577,9 @@
     <m/>
   </r>
   <r>
-    <n v="26"/>
+    <n v="27"/>
     <n v="2224338"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Mandangi sailaja - 2224338"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8985934538"/>
@@ -13529,9 +13588,9 @@
     <m/>
   </r>
   <r>
-    <n v="27"/>
+    <n v="28"/>
     <n v="2224756"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Jannipalaka Lakshmi - 2224756"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9490231021"/>
@@ -13540,9 +13599,9 @@
     <m/>
   </r>
   <r>
-    <n v="28"/>
+    <n v="29"/>
     <n v="2247113"/>
-    <x v="14"/>
+    <x v="15"/>
     <s v="KONDAGORRI KALYANI-2247113"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <m/>
@@ -13551,9 +13610,9 @@
     <m/>
   </r>
   <r>
-    <n v="29"/>
+    <n v="30"/>
     <n v="2224771"/>
-    <x v="15"/>
+    <x v="16"/>
     <s v="Pattika Jagadeeswari - 2224771"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500896269"/>
@@ -13562,9 +13621,9 @@
     <m/>
   </r>
   <r>
-    <n v="30"/>
+    <n v="31"/>
     <n v="2245038"/>
-    <x v="15"/>
+    <x v="16"/>
     <s v="PUVVALA DHANALAKSHMI-2245038"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <m/>
@@ -13573,9 +13632,9 @@
     <m/>
   </r>
   <r>
-    <n v="31"/>
+    <n v="32"/>
     <n v="2243849"/>
-    <x v="16"/>
+    <x v="17"/>
     <s v="Burada Satyakala - 2243849"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9963248939"/>
@@ -13584,9 +13643,9 @@
     <m/>
   </r>
   <r>
-    <n v="32"/>
+    <n v="33"/>
     <n v="2217522"/>
-    <x v="17"/>
+    <x v="18"/>
     <s v="VEDANABHATLA RAMA CHANDRA RAO - 2217522"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9490488250"/>
@@ -13595,9 +13654,9 @@
     <m/>
   </r>
   <r>
-    <n v="33"/>
+    <n v="34"/>
     <n v="2224365"/>
-    <x v="17"/>
+    <x v="18"/>
     <s v="Srilakshmi Toyaka - 2224365"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500470262"/>
@@ -13606,9 +13665,9 @@
     <s v="DEPUTATION"/>
   </r>
   <r>
-    <n v="34"/>
+    <n v="35"/>
     <n v="2249476"/>
-    <x v="17"/>
+    <x v="18"/>
     <s v="Aditya kumar biddika - 2249476"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7382976935"/>
@@ -13617,9 +13676,9 @@
     <m/>
   </r>
   <r>
-    <n v="35"/>
+    <n v="36"/>
     <n v="2224364"/>
-    <x v="18"/>
+    <x v="19"/>
     <s v="kandula prasadarao - 2224364"/>
     <s v="LFL Head Master"/>
     <n v="9490460096"/>
@@ -13628,9 +13687,9 @@
     <m/>
   </r>
   <r>
-    <n v="36"/>
+    <n v="37"/>
     <n v="2224742"/>
-    <x v="18"/>
+    <x v="19"/>
     <s v="GOLA SUJATHA - 2224742"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9346093009"/>
@@ -13639,9 +13698,9 @@
     <m/>
   </r>
   <r>
-    <n v="37"/>
+    <n v="38"/>
     <n v="2224317"/>
-    <x v="19"/>
+    <x v="20"/>
     <s v="Lakshmi Narendruni - 2224317"/>
     <s v="LFL Head Master"/>
     <n v="9553705650"/>
@@ -13650,9 +13709,9 @@
     <m/>
   </r>
   <r>
-    <n v="38"/>
+    <n v="39"/>
     <n v="2224172"/>
-    <x v="19"/>
+    <x v="20"/>
     <s v="vataka dasu - 2224172"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9989277587"/>
@@ -13661,9 +13720,9 @@
     <m/>
   </r>
   <r>
-    <n v="39"/>
+    <n v="40"/>
     <n v="2224346"/>
-    <x v="19"/>
+    <x v="20"/>
     <s v="Govinda Rao Medida - 2224346"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9440448592"/>
@@ -13672,9 +13731,9 @@
     <m/>
   </r>
   <r>
-    <n v="40"/>
+    <n v="41"/>
     <n v="2224323"/>
-    <x v="20"/>
+    <x v="21"/>
     <s v="bhagyalaxmi mandangi - 2224323"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9392646849"/>
@@ -13683,9 +13742,9 @@
     <m/>
   </r>
   <r>
-    <n v="41"/>
+    <n v="42"/>
     <n v="2224288"/>
-    <x v="21"/>
+    <x v="22"/>
     <s v="Toyaka Gowri sankar - 2224288"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9493109252"/>
@@ -13694,9 +13753,9 @@
     <m/>
   </r>
   <r>
-    <n v="42"/>
+    <n v="43"/>
     <n v="2224353"/>
-    <x v="22"/>
+    <x v="23"/>
     <s v="RAJAPU VIJAY KUMAR - 2224353"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491601602"/>
@@ -13705,9 +13764,9 @@
     <m/>
   </r>
   <r>
-    <n v="43"/>
+    <n v="44"/>
     <n v="2247006"/>
-    <x v="22"/>
+    <x v="23"/>
     <s v="GOWDU KRISHANACHAITANYA - 2247006"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492016450"/>
@@ -13716,9 +13775,9 @@
     <m/>
   </r>
   <r>
-    <n v="44"/>
+    <n v="45"/>
     <n v="2224289"/>
-    <x v="23"/>
+    <x v="24"/>
     <s v="Toyaka Rajita - 2224289"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7382434028"/>
@@ -13727,9 +13786,9 @@
     <s v="DEPUTATION"/>
   </r>
   <r>
-    <n v="45"/>
+    <n v="46"/>
     <n v="2224634"/>
-    <x v="23"/>
+    <x v="24"/>
     <s v="NAGESWARARAO BIDDIKA - 2224634"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492831754"/>
@@ -13738,9 +13797,9 @@
     <m/>
   </r>
   <r>
-    <n v="46"/>
+    <n v="47"/>
     <n v="2244664"/>
-    <x v="23"/>
+    <x v="24"/>
     <s v="Mandangi Raju - 2244664"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7382217235"/>
@@ -13749,9 +13808,9 @@
     <m/>
   </r>
   <r>
-    <n v="47"/>
+    <n v="48"/>
     <n v="2207580"/>
-    <x v="24"/>
+    <x v="25"/>
     <s v="Gowdu Naresh - 2207580"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9490302874"/>
@@ -13760,9 +13819,9 @@
     <m/>
   </r>
   <r>
-    <n v="48"/>
+    <n v="49"/>
     <n v="2244127"/>
-    <x v="24"/>
+    <x v="25"/>
     <s v="Kadraka sarada - 2244127"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494328104"/>
@@ -13771,9 +13830,9 @@
     <m/>
   </r>
   <r>
-    <n v="49"/>
+    <n v="50"/>
     <n v="2247087"/>
-    <x v="24"/>
+    <x v="25"/>
     <s v="sekhar kadraka - 2247087"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500015253"/>
@@ -13782,9 +13841,9 @@
     <s v="DEPUTATION"/>
   </r>
   <r>
-    <n v="50"/>
+    <n v="51"/>
     <n v="2224360"/>
-    <x v="25"/>
+    <x v="26"/>
     <s v="Dch Narayanarao - 2224360"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7901077702"/>
@@ -13793,9 +13852,9 @@
     <m/>
   </r>
   <r>
-    <n v="51"/>
+    <n v="52"/>
     <n v="2229550"/>
-    <x v="26"/>
+    <x v="27"/>
     <s v="MANDANGi simhachalam - 2229550"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8125353995"/>
@@ -13804,9 +13863,9 @@
     <m/>
   </r>
   <r>
-    <n v="52"/>
+    <n v="53"/>
     <n v="1000215615"/>
-    <x v="27"/>
+    <x v="28"/>
     <s v="Mandangi Malleswararao - 1000215615"/>
     <s v="Secondary Grade Teacher(On MTS Basis)"/>
     <n v="8333873503"/>
@@ -13815,9 +13874,9 @@
     <m/>
   </r>
   <r>
-    <n v="53"/>
+    <n v="54"/>
     <n v="2224731"/>
-    <x v="27"/>
+    <x v="28"/>
     <s v="Kadraka kishor Kumar - 2224731"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9441429959"/>
@@ -13826,9 +13885,9 @@
     <m/>
   </r>
   <r>
-    <n v="54"/>
+    <n v="55"/>
     <n v="2224343"/>
-    <x v="28"/>
+    <x v="29"/>
     <s v="SIRINAIDU KONDAGORRI-2224343"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7993856548"/>
@@ -13837,9 +13896,9 @@
     <m/>
   </r>
   <r>
-    <n v="55"/>
+    <n v="56"/>
     <n v="253535"/>
-    <x v="29"/>
+    <x v="30"/>
     <s v="mahalakshmi tarigoppula - 0253535"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9573875918"/>
@@ -13848,9 +13907,9 @@
     <m/>
   </r>
   <r>
-    <n v="56"/>
+    <n v="57"/>
     <n v="2224590"/>
-    <x v="30"/>
+    <x v="31"/>
     <s v="Paidayya Gadasana - 2224590"/>
     <s v="LFL Head Master"/>
     <n v="9133022552"/>
@@ -13859,9 +13918,9 @@
     <m/>
   </r>
   <r>
-    <n v="57"/>
+    <n v="58"/>
     <n v="2246943"/>
-    <x v="30"/>
+    <x v="31"/>
     <s v="Biddika Jayasudha - 2246943"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9441908378"/>
@@ -13870,9 +13929,9 @@
     <m/>
   </r>
   <r>
-    <n v="58"/>
+    <n v="59"/>
     <n v="2249734"/>
-    <x v="30"/>
+    <x v="31"/>
     <s v="mandangi Naveen - 2249734"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8332055160"/>
@@ -13881,9 +13940,9 @@
     <s v="DEPUTATION"/>
   </r>
   <r>
-    <n v="59"/>
+    <n v="60"/>
     <n v="2224361"/>
-    <x v="31"/>
+    <x v="32"/>
     <s v="Vuyaka BhaskaraRao - 2224361"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494326125"/>
@@ -13892,9 +13951,9 @@
     <m/>
   </r>
   <r>
-    <n v="60"/>
+    <n v="61"/>
     <n v="2249473"/>
-    <x v="32"/>
+    <x v="33"/>
     <s v="ANUSHA SAVALASINGU-2249473"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="6301255263"/>
@@ -13903,9 +13962,9 @@
     <m/>
   </r>
   <r>
-    <n v="61"/>
+    <n v="62"/>
     <n v="2224356"/>
-    <x v="33"/>
+    <x v="34"/>
     <s v="Kondagorri Kameswararao - 2224356"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492022725"/>
@@ -13914,9 +13973,9 @@
     <m/>
   </r>
   <r>
-    <n v="62"/>
+    <n v="63"/>
     <n v="2247111"/>
-    <x v="33"/>
+    <x v="34"/>
     <s v="Gajapathi Rama krishna - 2247111"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500519602"/>
@@ -13925,9 +13984,9 @@
     <m/>
   </r>
   <r>
-    <n v="63"/>
+    <n v="64"/>
     <n v="2224325"/>
-    <x v="34"/>
+    <x v="35"/>
     <s v="Barli Somesh - 2224325"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9493057622"/>
@@ -13936,9 +13995,9 @@
     <m/>
   </r>
   <r>
-    <n v="64"/>
+    <n v="65"/>
     <n v="2244410"/>
-    <x v="35"/>
+    <x v="36"/>
     <s v="someswararao vuyaka - 2244410"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9381569702"/>
@@ -13947,9 +14006,9 @@
     <s v="DEPUTATION"/>
   </r>
   <r>
-    <n v="65"/>
+    <n v="66"/>
     <n v="2224268"/>
-    <x v="36"/>
+    <x v="37"/>
     <s v="Routhu Venkata Ramana - 2224268"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9441415128"/>
@@ -13958,9 +14017,9 @@
     <m/>
   </r>
   <r>
-    <n v="66"/>
+    <n v="67"/>
     <n v="2224319"/>
-    <x v="37"/>
+    <x v="38"/>
     <s v="ARIKA RAMACHANDRARAO - 2224319"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9441732018"/>
@@ -13969,9 +14028,9 @@
     <m/>
   </r>
   <r>
-    <n v="67"/>
+    <n v="68"/>
     <n v="2249744"/>
-    <x v="37"/>
+    <x v="38"/>
     <s v="Suresh kumar Puvvala - 2249744"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500336016"/>
@@ -13980,9 +14039,9 @@
     <m/>
   </r>
   <r>
-    <n v="68"/>
+    <n v="69"/>
     <n v="2208458"/>
-    <x v="38"/>
+    <x v="39"/>
     <s v="ROUTHU RAVIKUMAR - 2208458"/>
     <s v="LFL Head Master"/>
     <n v="7670848301"/>
@@ -13991,9 +14050,9 @@
     <m/>
   </r>
   <r>
-    <n v="69"/>
+    <n v="70"/>
     <n v="2224334"/>
-    <x v="38"/>
+    <x v="39"/>
     <s v="Kumburku Sujatha - 2224334"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500903721"/>
@@ -14002,9 +14061,9 @@
     <m/>
   </r>
   <r>
-    <n v="70"/>
+    <n v="71"/>
     <n v="2229084"/>
-    <x v="38"/>
+    <x v="39"/>
     <s v="Timmaka Ramprasadarao - 2229084"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491245114"/>
@@ -14013,9 +14072,9 @@
     <m/>
   </r>
   <r>
-    <n v="71"/>
+    <n v="72"/>
     <n v="2256872"/>
-    <x v="38"/>
+    <x v="39"/>
     <s v="MANDANGI CHINNARAO - 2256872"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9398447011"/>
@@ -14024,9 +14083,9 @@
     <s v="DEPUTATION"/>
   </r>
   <r>
-    <n v="72"/>
+    <n v="73"/>
     <n v="2224348"/>
-    <x v="39"/>
+    <x v="40"/>
     <s v="Chodipalli Latchanna - 2224348"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494136700"/>
@@ -14035,9 +14094,9 @@
     <m/>
   </r>
   <r>
-    <n v="73"/>
+    <n v="74"/>
     <n v="2224269"/>
-    <x v="40"/>
+    <x v="41"/>
     <s v="MANDANGI SIMHACHALAM - 2224269"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8125353995"/>
@@ -14046,9 +14105,9 @@
     <m/>
   </r>
   <r>
-    <n v="74"/>
+    <n v="75"/>
     <n v="2224363"/>
-    <x v="41"/>
+    <x v="42"/>
     <s v="padmavathi janapalli - 2224363"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500902637"/>
@@ -14057,9 +14116,9 @@
     <m/>
   </r>
   <r>
-    <n v="75"/>
+    <n v="76"/>
     <n v="2224768"/>
-    <x v="41"/>
+    <x v="42"/>
     <s v="Nimmala Lakhmanamurthy - 2224768"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9390876031"/>
@@ -14068,9 +14127,9 @@
     <m/>
   </r>
   <r>
-    <n v="76"/>
+    <n v="77"/>
     <n v="2224285"/>
-    <x v="42"/>
+    <x v="43"/>
     <s v="NIMMALA SUSEELA - 2224285"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9440171312"/>
@@ -14079,9 +14138,9 @@
     <m/>
   </r>
   <r>
-    <n v="77"/>
+    <n v="78"/>
     <n v="2224792"/>
-    <x v="42"/>
+    <x v="43"/>
     <s v="Bhushana Rao Pattika - 2224792"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492015652"/>
@@ -14090,9 +14149,9 @@
     <m/>
   </r>
   <r>
-    <n v="78"/>
+    <n v="79"/>
     <n v="2224633"/>
-    <x v="43"/>
+    <x v="44"/>
     <s v="KRISHNA ARIKA-2224633"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7993798760"/>
@@ -14101,9 +14160,9 @@
     <m/>
   </r>
   <r>
-    <n v="79"/>
+    <n v="80"/>
     <n v="2224331"/>
-    <x v="44"/>
+    <x v="45"/>
     <s v="Garla Kumar - 2224331"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9100826950"/>
@@ -14112,9 +14171,9 @@
     <m/>
   </r>
   <r>
-    <n v="80"/>
+    <n v="81"/>
     <n v="2247321"/>
-    <x v="45"/>
+    <x v="46"/>
     <s v="GAJAPATHI JHANSI RANI - 2247321"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9493637253"/>
@@ -14123,9 +14182,9 @@
     <m/>
   </r>
   <r>
-    <n v="81"/>
+    <n v="82"/>
     <n v="2249724"/>
-    <x v="45"/>
+    <x v="46"/>
     <s v="kondagorri shamili - 2249724"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9490541031"/>
@@ -14134,9 +14193,9 @@
     <m/>
   </r>
   <r>
-    <n v="82"/>
+    <n v="83"/>
     <n v="2224284"/>
-    <x v="46"/>
+    <x v="47"/>
     <s v="BANDI LATHA - 2224284"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8985912623"/>
@@ -14145,9 +14204,9 @@
     <m/>
   </r>
   <r>
-    <n v="83"/>
+    <n v="84"/>
     <n v="2224773"/>
-    <x v="46"/>
+    <x v="47"/>
     <s v="ARIKA JAGADEESWARI - 2224773"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7382124744"/>
@@ -14156,9 +14215,9 @@
     <m/>
   </r>
   <r>
-    <n v="84"/>
+    <n v="85"/>
     <n v="2247181"/>
-    <x v="46"/>
+    <x v="47"/>
     <s v="uyaka Gowrisankararao - 2247181"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492090842"/>
@@ -14167,9 +14226,9 @@
     <s v="DEPUTATION"/>
   </r>
   <r>
-    <n v="85"/>
+    <n v="86"/>
     <n v="116574"/>
-    <x v="47"/>
+    <x v="48"/>
     <s v="VUYAKA SUJATHA - 0116574"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9493238068"/>
@@ -14178,9 +14237,9 @@
     <m/>
   </r>
   <r>
-    <n v="86"/>
+    <n v="87"/>
     <n v="2229098"/>
-    <x v="47"/>
+    <x v="48"/>
     <s v="BANTU SIMHACHALAM - 2229098"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9121083391"/>
@@ -14189,9 +14248,9 @@
     <m/>
   </r>
   <r>
-    <n v="87"/>
+    <n v="88"/>
     <n v="2243837"/>
-    <x v="48"/>
+    <x v="49"/>
     <s v="vooyaka sravanamala - 2243837"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500895545"/>
@@ -14200,9 +14259,9 @@
     <m/>
   </r>
   <r>
-    <n v="88"/>
+    <n v="89"/>
     <n v="2224327"/>
-    <x v="49"/>
+    <x v="50"/>
     <s v="Gedela satya bhagavanu - 2224327"/>
     <s v="Head teacher"/>
     <n v="8500249423"/>
@@ -14211,9 +14270,9 @@
     <m/>
   </r>
   <r>
-    <n v="89"/>
+    <n v="90"/>
     <n v="2224744"/>
-    <x v="49"/>
+    <x v="50"/>
     <s v="Jagan Mohan - 2224744"/>
     <s v="Head teacher"/>
     <n v="9490630710"/>
@@ -14222,9 +14281,9 @@
     <m/>
   </r>
   <r>
-    <n v="90"/>
+    <n v="91"/>
     <n v="4220689"/>
-    <x v="50"/>
+    <x v="51"/>
     <s v="KONDAGORRI SUSEELA - 4220689"/>
     <s v="Secondary Grade Teacher (Telugu)"/>
     <n v="9573067957"/>
@@ -14233,9 +14292,9 @@
     <s v="DEPUTATION"/>
   </r>
   <r>
-    <n v="91"/>
+    <n v="92"/>
     <n v="2224347"/>
-    <x v="50"/>
+    <x v="51"/>
     <s v="Arika sudharani Sudharani - 2224347"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494328436"/>
@@ -14244,9 +14303,9 @@
     <m/>
   </r>
   <r>
-    <n v="92"/>
+    <n v="93"/>
     <n v="2244409"/>
-    <x v="50"/>
+    <x v="51"/>
     <s v="Janapatruni Bharati - 2244409"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9490498652"/>
@@ -14255,9 +14314,9 @@
     <m/>
   </r>
   <r>
-    <n v="93"/>
+    <n v="94"/>
     <n v="2224293"/>
-    <x v="51"/>
+    <x v="52"/>
     <s v="pattika krishnaveni - 2224293"/>
     <s v="LFL Head Master"/>
     <n v="9492453078"/>
@@ -14266,9 +14325,9 @@
     <m/>
   </r>
   <r>
-    <n v="94"/>
+    <n v="95"/>
     <n v="2208100"/>
-    <x v="51"/>
+    <x v="52"/>
     <s v="syama sundararao - 2208100"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491601639"/>
@@ -14277,9 +14336,9 @@
     <m/>
   </r>
   <r>
-    <n v="95"/>
+    <n v="96"/>
     <n v="2227153"/>
-    <x v="51"/>
+    <x v="52"/>
     <s v="mukkavalli lakshmi - 2227153"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7730035453"/>
@@ -14288,9 +14347,9 @@
     <m/>
   </r>
   <r>
-    <n v="96"/>
+    <n v="97"/>
     <n v="2224276"/>
-    <x v="52"/>
+    <x v="53"/>
     <s v="Kondatamara Vijaya - 2224276"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9963606866"/>
@@ -14299,20 +14358,9 @@
     <m/>
   </r>
   <r>
-    <n v="97"/>
-    <n v="2244411"/>
-    <x v="52"/>
-    <s v="ARIKA SARDHAR RAO - 2244411"/>
-    <s v="Secondary Grade Teacher/TGT"/>
-    <n v="6300906636"/>
-    <s v="MPP_ZPP SCHOOLS"/>
-    <s v="MPPS CHINAGEESADA-28120208103"/>
-    <s v="DEPUTATION"/>
-  </r>
-  <r>
     <n v="98"/>
     <s v=" P287791"/>
-    <x v="53"/>
+    <x v="54"/>
     <s v="Betha KumaraSwamy - P287791"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9440527517"/>
@@ -14323,7 +14371,7 @@
   <r>
     <n v="99"/>
     <n v="2949329"/>
-    <x v="54"/>
+    <x v="55"/>
     <s v="DEVARACHETTI SURYARAO - P836636"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492928825"/>
@@ -14334,7 +14382,7 @@
   <r>
     <n v="100"/>
     <n v="2949330"/>
-    <x v="54"/>
+    <x v="55"/>
     <s v="VOONNA KONDALARAO - P181267"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9490764751"/>
@@ -14345,7 +14393,7 @@
   <r>
     <n v="101"/>
     <n v="2949327"/>
-    <x v="55"/>
+    <x v="56"/>
     <s v="VANGAPANDU KURMINAIDU - 2949327"/>
     <s v="Secondary Grade Teacher (Telugu)"/>
     <n v="9491087803"/>
@@ -14356,7 +14404,7 @@
   <r>
     <n v="102"/>
     <n v="2225455"/>
-    <x v="56"/>
+    <x v="57"/>
     <s v="VUDDAVOLU RAJA GOPALA RAO - 2225455"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492748443"/>
@@ -14367,7 +14415,7 @@
   <r>
     <n v="103"/>
     <n v="2224202"/>
-    <x v="57"/>
+    <x v="58"/>
     <s v="Kolaka Mohanrao - 2224202"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492019417"/>
@@ -14378,7 +14426,7 @@
   <r>
     <n v="104"/>
     <n v="2225410"/>
-    <x v="57"/>
+    <x v="58"/>
     <s v="Sulochana Reddy - 2225410"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492017289"/>
@@ -14389,7 +14437,7 @@
   <r>
     <n v="105"/>
     <n v="2224691"/>
-    <x v="58"/>
+    <x v="59"/>
     <s v="Tirumareddi Venkata Rambabu - 2224691"/>
     <s v="LFL Head Master"/>
     <n v="9491321707"/>
@@ -14400,7 +14448,7 @@
   <r>
     <n v="106"/>
     <n v="2225412"/>
-    <x v="58"/>
+    <x v="59"/>
     <s v="Dasari Amala - P163250"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494325905"/>
@@ -14411,7 +14459,7 @@
   <r>
     <n v="107"/>
     <n v="2229255"/>
-    <x v="59"/>
+    <x v="60"/>
     <s v="Chiriki Swaminaidu - 2229255"/>
     <s v="LFL Head Master"/>
     <n v="9494010330"/>
@@ -14422,7 +14470,7 @@
   <r>
     <n v="108"/>
     <n v="2224256"/>
-    <x v="59"/>
+    <x v="60"/>
     <s v="YADLA SURYANARAYANA - 2224256"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9493311772"/>
@@ -14433,7 +14481,7 @@
   <r>
     <n v="109"/>
     <n v="2244407"/>
-    <x v="59"/>
+    <x v="60"/>
     <s v="vataka kesavarao - 2244407"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9908249570"/>
@@ -14444,7 +14492,7 @@
   <r>
     <n v="110"/>
     <n v="2214132"/>
-    <x v="60"/>
+    <x v="61"/>
     <s v="krishnarao dasari - 2214132"/>
     <s v="LFL Head Master"/>
     <n v="9441414636"/>
@@ -14455,7 +14503,7 @@
   <r>
     <n v="111"/>
     <n v="2224657"/>
-    <x v="60"/>
+    <x v="61"/>
     <s v="Biddika Kumaraswamy - 2224657"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500913862"/>
@@ -14466,7 +14514,7 @@
   <r>
     <n v="112"/>
     <n v="2224258"/>
-    <x v="61"/>
+    <x v="62"/>
     <s v="Raju Addakula - 2224258"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9550383796"/>
@@ -14477,7 +14525,7 @@
   <r>
     <n v="113"/>
     <n v="2224644"/>
-    <x v="61"/>
+    <x v="62"/>
     <s v="Mutaka Yogendra - 2224644"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492019120"/>
@@ -14488,7 +14536,7 @@
   <r>
     <n v="114"/>
     <n v="2224170"/>
-    <x v="62"/>
+    <x v="63"/>
     <s v="UYAKA SIMHACHALAM - 2224170"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="6301937134"/>
@@ -14499,7 +14547,7 @@
   <r>
     <n v="115"/>
     <n v="2224679"/>
-    <x v="62"/>
+    <x v="63"/>
     <s v="jannimarri sujata - 2224679"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9182349589"/>
@@ -14510,7 +14558,7 @@
   <r>
     <n v="116"/>
     <n v="2224223"/>
-    <x v="63"/>
+    <x v="64"/>
     <s v="Gowdu Sumitramma - 2224223"/>
     <s v="LFL Head Master"/>
     <n v="9492618919"/>
@@ -14521,7 +14569,7 @@
   <r>
     <n v="117"/>
     <n v="2224229"/>
-    <x v="63"/>
+    <x v="64"/>
     <s v="Nimmala kemandarao - 2224229"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492732864"/>
@@ -14532,7 +14580,7 @@
   <r>
     <n v="118"/>
     <n v="2224242"/>
-    <x v="63"/>
+    <x v="64"/>
     <s v="Nimmala Sobhanbabu - 2224242"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494328429"/>
@@ -14543,7 +14591,7 @@
   <r>
     <n v="119"/>
     <n v="2249481"/>
-    <x v="64"/>
+    <x v="65"/>
     <s v="Prasanth Kolaka - 2249481"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491324817"/>
@@ -14554,7 +14602,7 @@
   <r>
     <n v="120"/>
     <n v="2249483"/>
-    <x v="64"/>
+    <x v="65"/>
     <s v="Mandangi SankaraRao - 2249483"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500139776"/>
@@ -14565,7 +14613,7 @@
   <r>
     <n v="121"/>
     <n v="2224250"/>
-    <x v="65"/>
+    <x v="66"/>
     <s v="MANDANGI MADAVARAO - 2224250"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494167396"/>
@@ -14576,7 +14624,7 @@
   <r>
     <n v="122"/>
     <n v="2224273"/>
-    <x v="65"/>
+    <x v="66"/>
     <s v="Nimmaka Sankararao - 2224273"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9390666310"/>
@@ -14586,8 +14634,19 @@
   </r>
   <r>
     <n v="123"/>
+    <n v="1000482576"/>
+    <x v="67"/>
+    <s v="GULLIPALLI SAVITRI"/>
+    <s v="Secondary Grade Teacher(On MTS Basis)"/>
+    <n v="9966004088"/>
+    <s v="STATE GOVT."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="124"/>
     <n v="2224209"/>
-    <x v="66"/>
+    <x v="67"/>
     <s v="Mandangi Revati - 2224209"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9493240797"/>
@@ -14596,9 +14655,9 @@
     <m/>
   </r>
   <r>
-    <n v="124"/>
+    <n v="125"/>
     <n v="2224252"/>
-    <x v="66"/>
+    <x v="67"/>
     <s v="Sandhyarani Maradana - 2224252"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492994288"/>
@@ -14607,20 +14666,9 @@
     <m/>
   </r>
   <r>
-    <n v="125"/>
-    <n v="1000482576"/>
-    <x v="66"/>
-    <s v="GULLIPALLI SAVITRI"/>
-    <s v="Secondary Grade Teacher(On MTS Basis)"/>
-    <n v="9966004088"/>
-    <s v="STATE GOVT."/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <n v="126"/>
     <n v="2233232"/>
-    <x v="67"/>
+    <x v="68"/>
     <s v="TAPPATLA BHANU - 2233232"/>
     <s v="LFL Head Master"/>
     <n v="8500187259"/>
@@ -14631,7 +14679,7 @@
   <r>
     <n v="127"/>
     <n v="2224186"/>
-    <x v="67"/>
+    <x v="68"/>
     <s v="biddika Kalavathi - 2224186"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8500286206"/>
@@ -14642,7 +14690,7 @@
   <r>
     <n v="128"/>
     <n v="2233153"/>
-    <x v="68"/>
+    <x v="69"/>
     <s v="giongada tiruathi rao - 2233153"/>
     <s v="LFL Head Master"/>
     <n v="9491838091"/>
@@ -14653,7 +14701,7 @@
   <r>
     <n v="129"/>
     <n v="2224665"/>
-    <x v="68"/>
+    <x v="69"/>
     <s v="Pattika Rajesh - 2224665"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8074688751"/>
@@ -14663,8 +14711,19 @@
   </r>
   <r>
     <n v="130"/>
+    <n v="1000216023"/>
+    <x v="70"/>
+    <s v="MUTAKA JEEVAN - 1000216023"/>
+    <s v="Secondary Grade Teacher(On MTS Basis)"/>
+    <n v="9441814684"/>
+    <s v="STATE GOVT."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="131"/>
     <n v="2224260"/>
-    <x v="69"/>
+    <x v="70"/>
     <s v="prasada rao - 2224260"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9440114756"/>
@@ -14673,20 +14732,9 @@
     <m/>
   </r>
   <r>
-    <n v="131"/>
-    <n v="1000216023"/>
-    <x v="69"/>
-    <s v="MUTAKA JEEVAN - 1000216023"/>
-    <s v="Secondary Grade Teacher(On MTS Basis)"/>
-    <n v="9441814684"/>
-    <s v="STATE GOVT."/>
-    <m/>
-    <m/>
-  </r>
-  <r>
     <n v="132"/>
     <n v="2224225"/>
-    <x v="70"/>
+    <x v="71"/>
     <s v="KOLAKA CHANDRABABU - 2224225"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9493312407"/>
@@ -14697,7 +14745,7 @@
   <r>
     <n v="133"/>
     <n v="2224653"/>
-    <x v="70"/>
+    <x v="71"/>
     <s v="UDAMALA RAMAKRISHNARAO - 2224653"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9346618510"/>
@@ -14708,7 +14756,7 @@
   <r>
     <n v="134"/>
     <n v="2214456"/>
-    <x v="71"/>
+    <x v="72"/>
     <s v="seera Atchuta Rao - 2214456"/>
     <s v="LFL Head Master"/>
     <n v="9441160854"/>
@@ -14719,7 +14767,7 @@
   <r>
     <n v="135"/>
     <n v="2249482"/>
-    <x v="71"/>
+    <x v="72"/>
     <s v="PUVVALA USHA - 2249482"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492477852"/>
@@ -14730,7 +14778,7 @@
   <r>
     <n v="136"/>
     <n v="2224196"/>
-    <x v="72"/>
+    <x v="73"/>
     <s v="nirmal peddinti - 2224196"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9441966523"/>
@@ -14741,7 +14789,7 @@
   <r>
     <n v="137"/>
     <n v="2244603"/>
-    <x v="72"/>
+    <x v="73"/>
     <s v="Toyaka Radhika - 2244603"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9441970330"/>
@@ -14752,7 +14800,7 @@
   <r>
     <n v="138"/>
     <n v="2229330"/>
-    <x v="73"/>
+    <x v="74"/>
     <s v="kulapathirao ganta - 2229330"/>
     <s v="LFL Head Master"/>
     <n v="8328666975"/>
@@ -14762,8 +14810,19 @@
   </r>
   <r>
     <n v="139"/>
+    <n v="1009395603"/>
+    <x v="74"/>
+    <s v="KOTTAPALLI SEKHAR"/>
+    <s v="Secondary Grade Teacher(On MTS Basis)"/>
+    <n v="8019791086"/>
+    <s v="STATE GOVT."/>
+    <s v="MPPS SAMBUGUDA - 28120208501"/>
+    <s v="DEPUTATION"/>
+  </r>
+  <r>
+    <n v="140"/>
     <n v="2224707"/>
-    <x v="73"/>
+    <x v="74"/>
     <s v="Rambha Simhachalam - 2224707"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494781578"/>
@@ -14772,20 +14831,9 @@
     <m/>
   </r>
   <r>
-    <n v="140"/>
-    <n v="1009395603"/>
-    <x v="73"/>
-    <s v="KOTTAPALLI SEKHAR"/>
-    <s v="Secondary Grade Teacher(On MTS Basis)"/>
-    <n v="8019791086"/>
-    <s v="STATE GOVT."/>
-    <s v="MPPS SAMBUGUDA - 28120208501"/>
-    <s v="DEPUTATION"/>
-  </r>
-  <r>
     <n v="141"/>
     <n v="2233062"/>
-    <x v="74"/>
+    <x v="75"/>
     <s v="KUMBURKU SYAMASUNDARARAO - 2233062"/>
     <s v="LFL Head Master"/>
     <n v="9440584242"/>
@@ -14796,7 +14844,7 @@
   <r>
     <n v="142"/>
     <n v="2224187"/>
-    <x v="74"/>
+    <x v="75"/>
     <s v="Vimala Mandangi - 2224187"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492716987"/>
@@ -14807,7 +14855,7 @@
   <r>
     <n v="143"/>
     <n v="2207713"/>
-    <x v="75"/>
+    <x v="76"/>
     <s v="Guntreddi Dhanalakshmi - 2207713"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9440963677"/>
@@ -14818,7 +14866,7 @@
   <r>
     <n v="144"/>
     <n v="2244412"/>
-    <x v="75"/>
+    <x v="76"/>
     <s v="Gunagenji mohana rao - 2244412"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494325704"/>
@@ -14829,7 +14877,7 @@
   <r>
     <n v="145"/>
     <n v="2229524"/>
-    <x v="76"/>
+    <x v="77"/>
     <s v="satya kumar Sanjeevi - 2229524"/>
     <s v="LFL Head Master"/>
     <n v="9397951235"/>
@@ -14840,7 +14888,7 @@
   <r>
     <n v="146"/>
     <n v="2224705"/>
-    <x v="76"/>
+    <x v="77"/>
     <s v="KONDAGORRI NARAYANA RAO - 2224705"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7981766319"/>
@@ -14851,7 +14899,7 @@
   <r>
     <n v="147"/>
     <n v="2249480"/>
-    <x v="76"/>
+    <x v="77"/>
     <s v="Mandangi Chandrika - 2249480"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7382774126"/>
@@ -14862,7 +14910,7 @@
   <r>
     <n v="148"/>
     <n v="2229092"/>
-    <x v="77"/>
+    <x v="78"/>
     <s v="Anand Satish Kumar - 2229092"/>
     <s v="LFL Head Master"/>
     <n v="7382256741"/>
@@ -14873,7 +14921,7 @@
   <r>
     <n v="149"/>
     <n v="2224667"/>
-    <x v="77"/>
+    <x v="78"/>
     <s v="Sudhakar Nimmaka - 2224667"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7989703873"/>
@@ -14884,7 +14932,7 @@
   <r>
     <n v="150"/>
     <n v="2224637"/>
-    <x v="78"/>
+    <x v="79"/>
     <s v="Puvvala Dharmarao - 2224637"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494325754"/>
@@ -14895,7 +14943,7 @@
   <r>
     <n v="151"/>
     <n v="2224703"/>
-    <x v="78"/>
+    <x v="79"/>
     <s v="Lanka Ravi - 2224703"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9490948936"/>
@@ -14906,7 +14954,7 @@
   <r>
     <n v="152"/>
     <n v="2224286"/>
-    <x v="79"/>
+    <x v="80"/>
     <s v="MUTAKA BHASKARA RAO - 2224286"/>
     <s v="LFL Head Master"/>
     <n v="9491768793"/>
@@ -14917,7 +14965,7 @@
   <r>
     <n v="153"/>
     <n v="2224253"/>
-    <x v="79"/>
+    <x v="80"/>
     <s v="RAVI KUMAR KADRAKA - 2224253"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8985169260"/>
@@ -14928,7 +14976,7 @@
   <r>
     <n v="154"/>
     <n v="2224177"/>
-    <x v="80"/>
+    <x v="81"/>
     <s v="viswanadham biddika - 2224177"/>
     <s v="LFL Head Master"/>
     <n v="9492621203"/>
@@ -14939,7 +14987,7 @@
   <r>
     <n v="155"/>
     <n v="2224213"/>
-    <x v="80"/>
+    <x v="81"/>
     <s v="MANDANGI SUHASINI - 2224213"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491601495"/>
@@ -14950,7 +14998,7 @@
   <r>
     <n v="156"/>
     <n v="2215020"/>
-    <x v="81"/>
+    <x v="82"/>
     <s v="A SRINIVAS - 2215020"/>
     <s v="LFL Head Master"/>
     <n v="9490106541"/>
@@ -14961,7 +15009,7 @@
   <r>
     <n v="157"/>
     <n v="2244125"/>
-    <x v="81"/>
+    <x v="82"/>
     <s v="PALAKA MADHURI - 2244125"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491799587"/>
@@ -14972,7 +15020,7 @@
   <r>
     <n v="158"/>
     <n v="2224660"/>
-    <x v="82"/>
+    <x v="83"/>
     <s v="Puvvala Ratnakumar - 2224660"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491761662"/>
@@ -14983,7 +15031,7 @@
   <r>
     <n v="159"/>
     <n v="2219017"/>
-    <x v="83"/>
+    <x v="84"/>
     <s v="BURA SANYASAPPADU - 2219017"/>
     <s v="LFL Head Master"/>
     <n v="9490730623"/>
@@ -14994,7 +15042,7 @@
   <r>
     <n v="160"/>
     <n v="2224227"/>
-    <x v="83"/>
+    <x v="84"/>
     <s v="Addakula seshagiri - 2224227"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491842195"/>
@@ -15005,7 +15053,7 @@
   <r>
     <n v="161"/>
     <n v="2224230"/>
-    <x v="84"/>
+    <x v="85"/>
     <s v="BODDUDORA MANI - 2224230"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494329193"/>
@@ -15016,7 +15064,7 @@
   <r>
     <n v="162"/>
     <n v="2224236"/>
-    <x v="85"/>
+    <x v="86"/>
     <s v="kevati venkatarao - 2224236"/>
     <s v="LFL Head Master"/>
     <n v="9494328655"/>
@@ -15027,7 +15075,7 @@
   <r>
     <n v="163"/>
     <n v="2224219"/>
-    <x v="85"/>
+    <x v="86"/>
     <s v="Kumar Kondagorri - 2224219"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="7382634639"/>
@@ -15038,7 +15086,7 @@
   <r>
     <n v="164"/>
     <n v="2224690"/>
-    <x v="86"/>
+    <x v="87"/>
     <s v="Roja Ramani - 2224690"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9441020561"/>
@@ -15049,7 +15097,7 @@
   <r>
     <n v="165"/>
     <n v="2224245"/>
-    <x v="87"/>
+    <x v="88"/>
     <s v="jeevankumar timmaka - 2224245"/>
     <s v="LFL Head Master"/>
     <n v="9494166602"/>
@@ -15060,7 +15108,7 @@
   <r>
     <n v="166"/>
     <n v="7018734"/>
-    <x v="87"/>
+    <x v="88"/>
     <s v="KADRAKA SASIBHUSAN RAO-7018734"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="8328539736"/>
@@ -15071,7 +15119,7 @@
   <r>
     <n v="167"/>
     <n v="2224257"/>
-    <x v="88"/>
+    <x v="89"/>
     <s v="kartheek rayudu - 2224257"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9618831914"/>
@@ -15082,7 +15130,7 @@
   <r>
     <n v="168"/>
     <n v="2224681"/>
-    <x v="89"/>
+    <x v="90"/>
     <s v="SESHU KUMARI VANGIPURAM-2224681"/>
     <s v="LFL Head Master"/>
     <n v="7569063485"/>
@@ -15093,7 +15141,7 @@
   <r>
     <n v="169"/>
     <n v="2247010"/>
-    <x v="89"/>
+    <x v="90"/>
     <s v="kadraka triveni - 2247010"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9494915152"/>
@@ -15104,7 +15152,7 @@
   <r>
     <n v="170"/>
     <n v="2224203"/>
-    <x v="90"/>
+    <x v="91"/>
     <s v="Addakula sanyasinaidu - 2224203"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9440642614"/>
@@ -15115,7 +15163,7 @@
   <r>
     <n v="171"/>
     <n v="2224638"/>
-    <x v="90"/>
+    <x v="91"/>
     <s v="Mandangi Vinodkumar - 2224638"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9491602283"/>
@@ -15126,7 +15174,7 @@
   <r>
     <n v="172"/>
     <n v="2224658"/>
-    <x v="90"/>
+    <x v="91"/>
     <s v="Palleraka Arunakumari - 2224658"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9492021366"/>
@@ -15137,7 +15185,7 @@
   <r>
     <n v="173"/>
     <n v="2224675"/>
-    <x v="90"/>
+    <x v="91"/>
     <s v="Limmaka Harigopalarao - 2224675"/>
     <s v="Secondary Grade Teacher/TGT"/>
     <n v="9440114867"/>
@@ -15149,14 +15197,13 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EED2A940-6D5B-41F6-A033-2D132254A0DE}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B95" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B96" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="92">
-        <item x="53"/>
+      <items count="93">
         <item x="54"/>
         <item x="55"/>
         <item x="56"/>
@@ -15194,12 +15241,12 @@
         <item x="88"/>
         <item x="89"/>
         <item x="90"/>
+        <item x="91"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
@@ -15247,6 +15294,8 @@
         <item x="50"/>
         <item x="51"/>
         <item x="52"/>
+        <item x="53"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15260,7 +15309,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="92">
+  <rowItems count="93">
     <i>
       <x/>
     </i>
@@ -15534,6 +15583,9 @@
     <i>
       <x v="90"/>
     </i>
+    <i>
+      <x v="91"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -15557,7 +15609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5ED29644-C7ED-487F-9BAE-50C23BA89C79}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -15682,7 +15734,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -15734,7 +15786,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -15928,18 +15980,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696CA1F4-9015-4735-9DA3-19B45313834B}">
-  <dimension ref="A3:B95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B96"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15962,7 +16014,7 @@
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="45">
         <v>1</v>
       </c>
     </row>
@@ -15970,7 +16022,7 @@
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="45">
         <v>2</v>
       </c>
     </row>
@@ -15978,7 +16030,7 @@
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="45">
         <v>1</v>
       </c>
     </row>
@@ -15986,7 +16038,7 @@
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="45">
         <v>1</v>
       </c>
     </row>
@@ -15994,7 +16046,7 @@
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="51">
+      <c r="B8" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16002,7 +16054,7 @@
       <c r="A9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16010,7 +16062,7 @@
       <c r="A10" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16018,7 +16070,7 @@
       <c r="A11" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16026,7 +16078,7 @@
       <c r="A12" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="51">
+      <c r="B12" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16034,7 +16086,7 @@
       <c r="A13" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16042,7 +16094,7 @@
       <c r="A14" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16050,7 +16102,7 @@
       <c r="A15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="51">
+      <c r="B15" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16058,7 +16110,7 @@
       <c r="A16" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16066,7 +16118,7 @@
       <c r="A17" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16074,7 +16126,7 @@
       <c r="A18" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16082,7 +16134,7 @@
       <c r="A19" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16090,7 +16142,7 @@
       <c r="A20" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16098,7 +16150,7 @@
       <c r="A21" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16106,7 +16158,7 @@
       <c r="A22" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="51">
+      <c r="B22" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16114,7 +16166,7 @@
       <c r="A23" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16122,7 +16174,7 @@
       <c r="A24" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16130,7 +16182,7 @@
       <c r="A25" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B25" s="51">
+      <c r="B25" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16138,7 +16190,7 @@
       <c r="A26" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B26" s="51">
+      <c r="B26" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16146,7 +16198,7 @@
       <c r="A27" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B27" s="51">
+      <c r="B27" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16154,7 +16206,7 @@
       <c r="A28" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16162,7 +16214,7 @@
       <c r="A29" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="51">
+      <c r="B29" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16170,7 +16222,7 @@
       <c r="A30" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="51">
+      <c r="B30" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16178,7 +16230,7 @@
       <c r="A31" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16186,7 +16238,7 @@
       <c r="A32" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B32" s="51">
+      <c r="B32" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16194,7 +16246,7 @@
       <c r="A33" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="51">
+      <c r="B33" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16202,7 +16254,7 @@
       <c r="A34" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B34" s="51">
+      <c r="B34" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16210,7 +16262,7 @@
       <c r="A35" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16218,7 +16270,7 @@
       <c r="A36" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="51">
+      <c r="B36" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16226,7 +16278,7 @@
       <c r="A37" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B37" s="51">
+      <c r="B37" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16234,7 +16286,7 @@
       <c r="A38" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16242,7 +16294,7 @@
       <c r="A39" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B39" s="51">
+      <c r="B39" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16250,7 +16302,7 @@
       <c r="A40" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B40" s="51">
+      <c r="B40" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16258,7 +16310,7 @@
       <c r="A41" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="B41" s="51">
+      <c r="B41" s="45">
         <v>4</v>
       </c>
     </row>
@@ -16266,7 +16318,7 @@
       <c r="A42" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16274,7 +16326,7 @@
       <c r="A43" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="B43" s="51">
+      <c r="B43" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16282,7 +16334,7 @@
       <c r="A44" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="B44" s="51">
+      <c r="B44" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16290,7 +16342,7 @@
       <c r="A45" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="B45" s="51">
+      <c r="B45" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16298,7 +16350,7 @@
       <c r="A46" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="B46" s="51">
+      <c r="B46" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16306,7 +16358,7 @@
       <c r="A47" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="B47" s="51">
+      <c r="B47" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16314,7 +16366,7 @@
       <c r="A48" s="10" t="s">
         <v>999</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16322,7 +16374,7 @@
       <c r="A49" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="B49" s="51">
+      <c r="B49" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16330,7 +16382,7 @@
       <c r="A50" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="B50" s="51">
+      <c r="B50" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16338,7 +16390,7 @@
       <c r="A51" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="B51" s="51">
+      <c r="B51" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16346,7 +16398,7 @@
       <c r="A52" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B52" s="51">
+      <c r="B52" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16354,7 +16406,7 @@
       <c r="A53" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="B53" s="51">
+      <c r="B53" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16362,7 +16414,7 @@
       <c r="A54" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="B54" s="51">
+      <c r="B54" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16370,7 +16422,7 @@
       <c r="A55" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16378,7 +16430,7 @@
       <c r="A56" s="10" t="s">
         <v>1313</v>
       </c>
-      <c r="B56" s="51">
+      <c r="B56" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16386,7 +16438,7 @@
       <c r="A57" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="B57" s="51">
+      <c r="B57" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16394,7 +16446,7 @@
       <c r="A58" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B58" s="51">
+      <c r="B58" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16402,7 +16454,7 @@
       <c r="A59" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B59" s="51">
+      <c r="B59" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16410,7 +16462,7 @@
       <c r="A60" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B60" s="51">
+      <c r="B60" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16418,7 +16470,7 @@
       <c r="A61" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="B61" s="51">
+      <c r="B61" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16426,7 +16478,7 @@
       <c r="A62" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="B62" s="51">
+      <c r="B62" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16434,7 +16486,7 @@
       <c r="A63" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B63" s="51">
+      <c r="B63" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16442,7 +16494,7 @@
       <c r="A64" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B64" s="51">
+      <c r="B64" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16450,7 +16502,7 @@
       <c r="A65" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="B65" s="51">
+      <c r="B65" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16458,7 +16510,7 @@
       <c r="A66" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B66" s="51">
+      <c r="B66" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16466,7 +16518,7 @@
       <c r="A67" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="B67" s="51">
+      <c r="B67" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16474,7 +16526,7 @@
       <c r="A68" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B68" s="51">
+      <c r="B68" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16482,7 +16534,7 @@
       <c r="A69" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B69" s="51">
+      <c r="B69" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16490,7 +16542,7 @@
       <c r="A70" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B70" s="51">
+      <c r="B70" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16498,7 +16550,7 @@
       <c r="A71" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="B71" s="51">
+      <c r="B71" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16506,7 +16558,7 @@
       <c r="A72" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B72" s="51">
+      <c r="B72" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16514,7 +16566,7 @@
       <c r="A73" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="B73" s="51">
+      <c r="B73" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16522,7 +16574,7 @@
       <c r="A74" s="10" t="s">
         <v>1312</v>
       </c>
-      <c r="B74" s="51">
+      <c r="B74" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16530,7 +16582,7 @@
       <c r="A75" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B75" s="51">
+      <c r="B75" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16538,7 +16590,7 @@
       <c r="A76" s="10" t="s">
         <v>664</v>
       </c>
-      <c r="B76" s="51">
+      <c r="B76" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16546,7 +16598,7 @@
       <c r="A77" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B77" s="51">
+      <c r="B77" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16554,7 +16606,7 @@
       <c r="A78" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="B78" s="51">
+      <c r="B78" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16562,7 +16614,7 @@
       <c r="A79" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B79" s="51">
+      <c r="B79" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16570,7 +16622,7 @@
       <c r="A80" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B80" s="51">
+      <c r="B80" s="45">
         <v>4</v>
       </c>
     </row>
@@ -16578,7 +16630,7 @@
       <c r="A81" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="B81" s="51">
+      <c r="B81" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16586,7 +16638,7 @@
       <c r="A82" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="B82" s="51">
+      <c r="B82" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16594,7 +16646,7 @@
       <c r="A83" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="B83" s="51">
+      <c r="B83" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16602,7 +16654,7 @@
       <c r="A84" s="10" t="s">
         <v>685</v>
       </c>
-      <c r="B84" s="51">
+      <c r="B84" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16610,7 +16662,7 @@
       <c r="A85" s="10" t="s">
         <v>996</v>
       </c>
-      <c r="B85" s="51">
+      <c r="B85" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16618,7 +16670,7 @@
       <c r="A86" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="B86" s="51">
+      <c r="B86" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16626,7 +16678,7 @@
       <c r="A87" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="B87" s="51">
+      <c r="B87" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16634,7 +16686,7 @@
       <c r="A88" s="10" t="s">
         <v>694</v>
       </c>
-      <c r="B88" s="51">
+      <c r="B88" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16642,7 +16694,7 @@
       <c r="A89" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="B89" s="51">
+      <c r="B89" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16650,7 +16702,7 @@
       <c r="A90" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="B90" s="51">
+      <c r="B90" s="45">
         <v>1</v>
       </c>
     </row>
@@ -16658,7 +16710,7 @@
       <c r="A91" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B91" s="51">
+      <c r="B91" s="45">
         <v>2</v>
       </c>
     </row>
@@ -16666,7 +16718,7 @@
       <c r="A92" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="B92" s="51">
+      <c r="B92" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16674,7 +16726,7 @@
       <c r="A93" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="B93" s="51">
+      <c r="B93" s="45">
         <v>3</v>
       </c>
     </row>
@@ -16682,15 +16734,23 @@
       <c r="A94" s="10" t="s">
         <v>714</v>
       </c>
-      <c r="B94" s="51">
-        <v>2</v>
+      <c r="B94" s="45">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B95" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
         <v>993</v>
       </c>
-      <c r="B95" s="51">
+      <c r="B96" s="45">
         <v>171</v>
       </c>
     </row>
@@ -16700,53 +16760,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8187885F-BA8A-49BA-8E2C-CCCEE44067E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="44.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" style="13" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="13" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50" t="s">
+    <row r="1" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>1316</v>
       </c>
-      <c r="C1" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="C1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="43" t="s">
         <v>749</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="43" t="s">
         <v>994</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="43" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -16754,7 +16814,7 @@
       <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="39">
         <v>2224528</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -16777,7 +16837,7 @@
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>2224357</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -16800,7 +16860,7 @@
       <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>2249475</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -16823,7 +16883,7 @@
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="40">
         <v>2224330</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -16846,7 +16906,7 @@
       <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="39">
         <v>2224312</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -16869,7 +16929,7 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="39">
         <v>2224332</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -16892,7 +16952,7 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="39">
         <v>2243839</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -16915,7 +16975,7 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="39">
         <v>2244411</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -16938,7 +16998,7 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="39">
         <v>2224776</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -16961,7 +17021,7 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="39">
         <v>2240696</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -16984,7 +17044,7 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="39">
         <v>1002251043</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -17007,7 +17067,7 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="39">
         <v>257693</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -17030,7 +17090,7 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="39">
         <v>2224272</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -17053,7 +17113,7 @@
       <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="39">
         <v>2244745</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -17076,7 +17136,7 @@
       <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="39">
         <v>2246707</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -17105,7 +17165,7 @@
       <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="39">
         <v>2224207</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -17128,7 +17188,7 @@
       <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="39">
         <v>2229168</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -17151,7 +17211,7 @@
       <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="39">
         <v>2246998</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -17174,7 +17234,7 @@
       <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="39">
         <v>2224300</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -17197,7 +17257,7 @@
       <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="39">
         <v>2244214</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -17220,7 +17280,7 @@
       <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="39">
         <v>2245051</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -17243,7 +17303,7 @@
       <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="39">
         <v>2249733</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -17266,7 +17326,7 @@
       <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="39">
         <v>2224687</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -17289,7 +17349,7 @@
       <c r="A25" s="13">
         <v>26</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="39">
         <v>2224774</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -17312,7 +17372,7 @@
       <c r="A26" s="13">
         <v>27</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="39">
         <v>2224338</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -17335,7 +17395,7 @@
       <c r="A27" s="13">
         <v>28</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="39">
         <v>2224756</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -17358,7 +17418,7 @@
       <c r="A28" s="13">
         <v>29</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="39">
         <v>2247113</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -17378,7 +17438,7 @@
       <c r="A29" s="13">
         <v>30</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="39">
         <v>2224771</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -17401,7 +17461,7 @@
       <c r="A30" s="13">
         <v>31</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="39">
         <v>2245038</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -17421,7 +17481,7 @@
       <c r="A31" s="13">
         <v>32</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="39">
         <v>2243849</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -17444,7 +17504,7 @@
       <c r="A32" s="13">
         <v>33</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="39">
         <v>2217522</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -17467,7 +17527,7 @@
       <c r="A33" s="13">
         <v>34</v>
       </c>
-      <c r="B33" s="45">
+      <c r="B33" s="39">
         <v>2224365</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -17496,7 +17556,7 @@
       <c r="A34" s="13">
         <v>35</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="39">
         <v>2249476</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -17519,7 +17579,7 @@
       <c r="A35" s="13">
         <v>36</v>
       </c>
-      <c r="B35" s="45">
+      <c r="B35" s="39">
         <v>2224364</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -17542,7 +17602,7 @@
       <c r="A36" s="13">
         <v>37</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="39">
         <v>2224742</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -17565,7 +17625,7 @@
       <c r="A37" s="13">
         <v>38</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="39">
         <v>2224317</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -17588,7 +17648,7 @@
       <c r="A38" s="13">
         <v>39</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="39">
         <v>2224172</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -17611,7 +17671,7 @@
       <c r="A39" s="13">
         <v>40</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B39" s="39">
         <v>2224346</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -17634,7 +17694,7 @@
       <c r="A40" s="13">
         <v>41</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="39">
         <v>2224323</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -17657,7 +17717,7 @@
       <c r="A41" s="13">
         <v>42</v>
       </c>
-      <c r="B41" s="45">
+      <c r="B41" s="39">
         <v>2224288</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -17680,7 +17740,7 @@
       <c r="A42" s="13">
         <v>43</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="39">
         <v>2224353</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -17703,7 +17763,7 @@
       <c r="A43" s="13">
         <v>44</v>
       </c>
-      <c r="B43" s="45">
+      <c r="B43" s="39">
         <v>2247006</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -17726,7 +17786,7 @@
       <c r="A44" s="13">
         <v>45</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="39">
         <v>2224289</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -17755,7 +17815,7 @@
       <c r="A45" s="13">
         <v>46</v>
       </c>
-      <c r="B45" s="45">
+      <c r="B45" s="39">
         <v>2224634</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -17778,7 +17838,7 @@
       <c r="A46" s="13">
         <v>47</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="39">
         <v>2244664</v>
       </c>
       <c r="C46" s="13" t="s">
@@ -17801,7 +17861,7 @@
       <c r="A47" s="13">
         <v>48</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="41">
         <v>2207580</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -17824,7 +17884,7 @@
       <c r="A48" s="13">
         <v>49</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="39">
         <v>2244127</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -17847,7 +17907,7 @@
       <c r="A49" s="13">
         <v>50</v>
       </c>
-      <c r="B49" s="45">
+      <c r="B49" s="39">
         <v>2247087</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -17876,7 +17936,7 @@
       <c r="A50" s="13">
         <v>51</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="39">
         <v>2224360</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -17899,7 +17959,7 @@
       <c r="A51" s="13">
         <v>52</v>
       </c>
-      <c r="B51" s="45">
+      <c r="B51" s="39">
         <v>2229550</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -17922,7 +17982,7 @@
       <c r="A52" s="13">
         <v>53</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="39">
         <v>1000215615</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -17945,7 +18005,7 @@
       <c r="A53" s="13">
         <v>54</v>
       </c>
-      <c r="B53" s="45">
+      <c r="B53" s="39">
         <v>2224731</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -17968,7 +18028,7 @@
       <c r="A54" s="13">
         <v>55</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="39">
         <v>2224343</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -17991,7 +18051,7 @@
       <c r="A55" s="13">
         <v>56</v>
       </c>
-      <c r="B55" s="45">
+      <c r="B55" s="39">
         <v>253535</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -18014,7 +18074,7 @@
       <c r="A56" s="13">
         <v>57</v>
       </c>
-      <c r="B56" s="45">
+      <c r="B56" s="39">
         <v>2224590</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -18037,7 +18097,7 @@
       <c r="A57" s="13">
         <v>58</v>
       </c>
-      <c r="B57" s="45">
+      <c r="B57" s="39">
         <v>2246943</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -18060,7 +18120,7 @@
       <c r="A58" s="13">
         <v>59</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="39">
         <v>2249734</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -18089,7 +18149,7 @@
       <c r="A59" s="13">
         <v>60</v>
       </c>
-      <c r="B59" s="45">
+      <c r="B59" s="39">
         <v>2224361</v>
       </c>
       <c r="C59" s="13" t="s">
@@ -18112,7 +18172,7 @@
       <c r="A60" s="13">
         <v>61</v>
       </c>
-      <c r="B60" s="45">
+      <c r="B60" s="39">
         <v>2249473</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -18135,7 +18195,7 @@
       <c r="A61" s="13">
         <v>62</v>
       </c>
-      <c r="B61" s="45">
+      <c r="B61" s="39">
         <v>2224356</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -18158,7 +18218,7 @@
       <c r="A62" s="13">
         <v>63</v>
       </c>
-      <c r="B62" s="45">
+      <c r="B62" s="39">
         <v>2247111</v>
       </c>
       <c r="C62" s="13" t="s">
@@ -18181,7 +18241,7 @@
       <c r="A63" s="13">
         <v>64</v>
       </c>
-      <c r="B63" s="45">
+      <c r="B63" s="39">
         <v>2224325</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -18204,7 +18264,7 @@
       <c r="A64" s="13">
         <v>65</v>
       </c>
-      <c r="B64" s="45">
+      <c r="B64" s="39">
         <v>2244410</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -18233,7 +18293,7 @@
       <c r="A65" s="13">
         <v>66</v>
       </c>
-      <c r="B65" s="45">
+      <c r="B65" s="39">
         <v>2224268</v>
       </c>
       <c r="C65" s="13" t="s">
@@ -18256,7 +18316,7 @@
       <c r="A66" s="13">
         <v>67</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="39">
         <v>2224319</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -18279,7 +18339,7 @@
       <c r="A67" s="13">
         <v>68</v>
       </c>
-      <c r="B67" s="45">
+      <c r="B67" s="39">
         <v>2249744</v>
       </c>
       <c r="C67" s="13" t="s">
@@ -18302,7 +18362,7 @@
       <c r="A68" s="13">
         <v>69</v>
       </c>
-      <c r="B68" s="45">
+      <c r="B68" s="39">
         <v>2208458</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -18325,7 +18385,7 @@
       <c r="A69" s="13">
         <v>70</v>
       </c>
-      <c r="B69" s="45">
+      <c r="B69" s="39">
         <v>2224334</v>
       </c>
       <c r="C69" s="13" t="s">
@@ -18348,7 +18408,7 @@
       <c r="A70" s="13">
         <v>71</v>
       </c>
-      <c r="B70" s="45">
+      <c r="B70" s="39">
         <v>2229084</v>
       </c>
       <c r="C70" s="13" t="s">
@@ -18371,7 +18431,7 @@
       <c r="A71" s="13">
         <v>72</v>
       </c>
-      <c r="B71" s="45">
+      <c r="B71" s="39">
         <v>2256872</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -18400,7 +18460,7 @@
       <c r="A72" s="13">
         <v>73</v>
       </c>
-      <c r="B72" s="45">
+      <c r="B72" s="39">
         <v>2224348</v>
       </c>
       <c r="C72" s="13" t="s">
@@ -18423,7 +18483,7 @@
       <c r="A73" s="13">
         <v>74</v>
       </c>
-      <c r="B73" s="45">
+      <c r="B73" s="39">
         <v>2224269</v>
       </c>
       <c r="C73" s="13" t="s">
@@ -18446,7 +18506,7 @@
       <c r="A74" s="13">
         <v>75</v>
       </c>
-      <c r="B74" s="45">
+      <c r="B74" s="39">
         <v>2224363</v>
       </c>
       <c r="C74" s="13" t="s">
@@ -18469,7 +18529,7 @@
       <c r="A75" s="13">
         <v>76</v>
       </c>
-      <c r="B75" s="45">
+      <c r="B75" s="39">
         <v>2224768</v>
       </c>
       <c r="C75" s="13" t="s">
@@ -18492,7 +18552,7 @@
       <c r="A76" s="13">
         <v>77</v>
       </c>
-      <c r="B76" s="45">
+      <c r="B76" s="39">
         <v>2224285</v>
       </c>
       <c r="C76" s="13" t="s">
@@ -18515,7 +18575,7 @@
       <c r="A77" s="13">
         <v>78</v>
       </c>
-      <c r="B77" s="45">
+      <c r="B77" s="39">
         <v>2224792</v>
       </c>
       <c r="C77" s="13" t="s">
@@ -18538,7 +18598,7 @@
       <c r="A78" s="13">
         <v>79</v>
       </c>
-      <c r="B78" s="45">
+      <c r="B78" s="39">
         <v>2224633</v>
       </c>
       <c r="C78" s="13" t="s">
@@ -18561,7 +18621,7 @@
       <c r="A79" s="13">
         <v>80</v>
       </c>
-      <c r="B79" s="45">
+      <c r="B79" s="39">
         <v>2224331</v>
       </c>
       <c r="C79" s="13" t="s">
@@ -18584,7 +18644,7 @@
       <c r="A80" s="13">
         <v>81</v>
       </c>
-      <c r="B80" s="45">
+      <c r="B80" s="39">
         <v>2247321</v>
       </c>
       <c r="C80" s="13" t="s">
@@ -18607,7 +18667,7 @@
       <c r="A81" s="13">
         <v>82</v>
       </c>
-      <c r="B81" s="45">
+      <c r="B81" s="39">
         <v>2249724</v>
       </c>
       <c r="C81" s="13" t="s">
@@ -18630,7 +18690,7 @@
       <c r="A82" s="13">
         <v>83</v>
       </c>
-      <c r="B82" s="45">
+      <c r="B82" s="39">
         <v>2224284</v>
       </c>
       <c r="C82" s="13" t="s">
@@ -18653,7 +18713,7 @@
       <c r="A83" s="13">
         <v>84</v>
       </c>
-      <c r="B83" s="45">
+      <c r="B83" s="39">
         <v>2224773</v>
       </c>
       <c r="C83" s="13" t="s">
@@ -18676,7 +18736,7 @@
       <c r="A84" s="13">
         <v>85</v>
       </c>
-      <c r="B84" s="45">
+      <c r="B84" s="39">
         <v>2247181</v>
       </c>
       <c r="C84" s="13" t="s">
@@ -18705,7 +18765,7 @@
       <c r="A85" s="13">
         <v>86</v>
       </c>
-      <c r="B85" s="45">
+      <c r="B85" s="39">
         <v>116574</v>
       </c>
       <c r="C85" s="13" t="s">
@@ -18728,7 +18788,7 @@
       <c r="A86" s="13">
         <v>87</v>
       </c>
-      <c r="B86" s="45">
+      <c r="B86" s="39">
         <v>2229098</v>
       </c>
       <c r="C86" s="13" t="s">
@@ -18751,7 +18811,7 @@
       <c r="A87" s="13">
         <v>88</v>
       </c>
-      <c r="B87" s="45">
+      <c r="B87" s="39">
         <v>2243837</v>
       </c>
       <c r="C87" s="13" t="s">
@@ -18774,7 +18834,7 @@
       <c r="A88" s="13">
         <v>89</v>
       </c>
-      <c r="B88" s="45">
+      <c r="B88" s="39">
         <v>2224327</v>
       </c>
       <c r="C88" s="13" t="s">
@@ -18797,7 +18857,7 @@
       <c r="A89" s="13">
         <v>90</v>
       </c>
-      <c r="B89" s="45">
+      <c r="B89" s="39">
         <v>2224744</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -18820,7 +18880,7 @@
       <c r="A90" s="13">
         <v>91</v>
       </c>
-      <c r="B90" s="45">
+      <c r="B90" s="39">
         <v>4220689</v>
       </c>
       <c r="C90" s="13" t="s">
@@ -18849,7 +18909,7 @@
       <c r="A91" s="13">
         <v>92</v>
       </c>
-      <c r="B91" s="45">
+      <c r="B91" s="39">
         <v>2224347</v>
       </c>
       <c r="C91" s="13" t="s">
@@ -18872,7 +18932,7 @@
       <c r="A92" s="13">
         <v>93</v>
       </c>
-      <c r="B92" s="45">
+      <c r="B92" s="39">
         <v>2244409</v>
       </c>
       <c r="C92" s="13" t="s">
@@ -18895,7 +18955,7 @@
       <c r="A93" s="13">
         <v>94</v>
       </c>
-      <c r="B93" s="45">
+      <c r="B93" s="39">
         <v>2224293</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -18918,7 +18978,7 @@
       <c r="A94" s="13">
         <v>95</v>
       </c>
-      <c r="B94" s="45">
+      <c r="B94" s="39">
         <v>2208100</v>
       </c>
       <c r="C94" s="13" t="s">
@@ -18941,7 +19001,7 @@
       <c r="A95" s="13">
         <v>96</v>
       </c>
-      <c r="B95" s="45">
+      <c r="B95" s="39">
         <v>2227153</v>
       </c>
       <c r="C95" s="13" t="s">
@@ -18964,7 +19024,7 @@
       <c r="A96" s="13">
         <v>97</v>
       </c>
-      <c r="B96" s="45">
+      <c r="B96" s="39">
         <v>2224276</v>
       </c>
       <c r="C96" s="13" t="s">
@@ -18987,7 +19047,7 @@
       <c r="A97" s="13">
         <v>98</v>
       </c>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="39" t="s">
         <v>1002</v>
       </c>
       <c r="C97" s="13" t="s">
@@ -19010,7 +19070,7 @@
       <c r="A98" s="13">
         <v>99</v>
       </c>
-      <c r="B98" s="48">
+      <c r="B98" s="42">
         <v>2949329</v>
       </c>
       <c r="C98" s="13" t="s">
@@ -19033,7 +19093,7 @@
       <c r="A99" s="13">
         <v>100</v>
       </c>
-      <c r="B99" s="48">
+      <c r="B99" s="42">
         <v>2949330</v>
       </c>
       <c r="C99" s="13" t="s">
@@ -19056,7 +19116,7 @@
       <c r="A100" s="13">
         <v>101</v>
       </c>
-      <c r="B100" s="47">
+      <c r="B100" s="41">
         <v>2949327</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -19079,7 +19139,7 @@
       <c r="A101" s="13">
         <v>102</v>
       </c>
-      <c r="B101" s="45">
+      <c r="B101" s="39">
         <v>2225455</v>
       </c>
       <c r="C101" s="13" t="s">
@@ -19102,7 +19162,7 @@
       <c r="A102" s="13">
         <v>103</v>
       </c>
-      <c r="B102" s="45">
+      <c r="B102" s="39">
         <v>2224202</v>
       </c>
       <c r="C102" s="13" t="s">
@@ -19125,7 +19185,7 @@
       <c r="A103" s="13">
         <v>104</v>
       </c>
-      <c r="B103" s="45">
+      <c r="B103" s="39">
         <v>2225410</v>
       </c>
       <c r="C103" s="13" t="s">
@@ -19148,7 +19208,7 @@
       <c r="A104" s="13">
         <v>105</v>
       </c>
-      <c r="B104" s="45">
+      <c r="B104" s="39">
         <v>2224691</v>
       </c>
       <c r="C104" s="13" t="s">
@@ -19171,7 +19231,7 @@
       <c r="A105" s="13">
         <v>106</v>
       </c>
-      <c r="B105" s="48">
+      <c r="B105" s="42">
         <v>2225412</v>
       </c>
       <c r="C105" s="13" t="s">
@@ -19194,7 +19254,7 @@
       <c r="A106" s="13">
         <v>107</v>
       </c>
-      <c r="B106" s="45">
+      <c r="B106" s="39">
         <v>2229255</v>
       </c>
       <c r="C106" s="13" t="s">
@@ -19217,7 +19277,7 @@
       <c r="A107" s="13">
         <v>108</v>
       </c>
-      <c r="B107" s="45">
+      <c r="B107" s="39">
         <v>2224256</v>
       </c>
       <c r="C107" s="13" t="s">
@@ -19240,7 +19300,7 @@
       <c r="A108" s="13">
         <v>109</v>
       </c>
-      <c r="B108" s="45">
+      <c r="B108" s="39">
         <v>2244407</v>
       </c>
       <c r="C108" s="13" t="s">
@@ -19263,7 +19323,7 @@
       <c r="A109" s="13">
         <v>110</v>
       </c>
-      <c r="B109" s="45">
+      <c r="B109" s="39">
         <v>2214132</v>
       </c>
       <c r="C109" s="13" t="s">
@@ -19286,7 +19346,7 @@
       <c r="A110" s="13">
         <v>111</v>
       </c>
-      <c r="B110" s="45">
+      <c r="B110" s="39">
         <v>2224657</v>
       </c>
       <c r="C110" s="13" t="s">
@@ -19309,7 +19369,7 @@
       <c r="A111" s="13">
         <v>112</v>
       </c>
-      <c r="B111" s="45">
+      <c r="B111" s="39">
         <v>2224258</v>
       </c>
       <c r="C111" s="13" t="s">
@@ -19332,7 +19392,7 @@
       <c r="A112" s="13">
         <v>113</v>
       </c>
-      <c r="B112" s="45">
+      <c r="B112" s="39">
         <v>2224644</v>
       </c>
       <c r="C112" s="13" t="s">
@@ -19355,7 +19415,7 @@
       <c r="A113" s="13">
         <v>114</v>
       </c>
-      <c r="B113" s="45">
+      <c r="B113" s="39">
         <v>2224170</v>
       </c>
       <c r="C113" s="13" t="s">
@@ -19378,7 +19438,7 @@
       <c r="A114" s="13">
         <v>115</v>
       </c>
-      <c r="B114" s="45">
+      <c r="B114" s="39">
         <v>2224679</v>
       </c>
       <c r="C114" s="13" t="s">
@@ -19401,7 +19461,7 @@
       <c r="A115" s="13">
         <v>116</v>
       </c>
-      <c r="B115" s="45">
+      <c r="B115" s="39">
         <v>2224223</v>
       </c>
       <c r="C115" s="13" t="s">
@@ -19424,7 +19484,7 @@
       <c r="A116" s="13">
         <v>117</v>
       </c>
-      <c r="B116" s="45">
+      <c r="B116" s="39">
         <v>2224229</v>
       </c>
       <c r="C116" s="13" t="s">
@@ -19447,7 +19507,7 @@
       <c r="A117" s="13">
         <v>118</v>
       </c>
-      <c r="B117" s="45">
+      <c r="B117" s="39">
         <v>2224242</v>
       </c>
       <c r="C117" s="13" t="s">
@@ -19470,7 +19530,7 @@
       <c r="A118" s="13">
         <v>119</v>
       </c>
-      <c r="B118" s="45">
+      <c r="B118" s="39">
         <v>2249481</v>
       </c>
       <c r="C118" s="13" t="s">
@@ -19493,7 +19553,7 @@
       <c r="A119" s="13">
         <v>120</v>
       </c>
-      <c r="B119" s="45">
+      <c r="B119" s="39">
         <v>2249483</v>
       </c>
       <c r="C119" s="13" t="s">
@@ -19516,7 +19576,7 @@
       <c r="A120" s="13">
         <v>121</v>
       </c>
-      <c r="B120" s="45">
+      <c r="B120" s="39">
         <v>2224250</v>
       </c>
       <c r="C120" s="13" t="s">
@@ -19539,7 +19599,7 @@
       <c r="A121" s="13">
         <v>122</v>
       </c>
-      <c r="B121" s="45">
+      <c r="B121" s="39">
         <v>2224273</v>
       </c>
       <c r="C121" s="13" t="s">
@@ -19562,7 +19622,7 @@
       <c r="A122" s="13">
         <v>123</v>
       </c>
-      <c r="B122" s="45">
+      <c r="B122" s="39">
         <v>1000482576</v>
       </c>
       <c r="C122" s="13" t="s">
@@ -19585,7 +19645,7 @@
       <c r="A123" s="13">
         <v>124</v>
       </c>
-      <c r="B123" s="45">
+      <c r="B123" s="39">
         <v>2224209</v>
       </c>
       <c r="C123" s="13" t="s">
@@ -19608,7 +19668,7 @@
       <c r="A124" s="13">
         <v>125</v>
       </c>
-      <c r="B124" s="45">
+      <c r="B124" s="39">
         <v>2224252</v>
       </c>
       <c r="C124" s="13" t="s">
@@ -19631,7 +19691,7 @@
       <c r="A125" s="13">
         <v>126</v>
       </c>
-      <c r="B125" s="45">
+      <c r="B125" s="39">
         <v>2233232</v>
       </c>
       <c r="C125" s="13" t="s">
@@ -19654,7 +19714,7 @@
       <c r="A126" s="13">
         <v>127</v>
       </c>
-      <c r="B126" s="45">
+      <c r="B126" s="39">
         <v>2224186</v>
       </c>
       <c r="C126" s="13" t="s">
@@ -19677,7 +19737,7 @@
       <c r="A127" s="13">
         <v>128</v>
       </c>
-      <c r="B127" s="45">
+      <c r="B127" s="39">
         <v>2233153</v>
       </c>
       <c r="C127" s="13" t="s">
@@ -19700,7 +19760,7 @@
       <c r="A128" s="13">
         <v>129</v>
       </c>
-      <c r="B128" s="45">
+      <c r="B128" s="39">
         <v>2224665</v>
       </c>
       <c r="C128" s="13" t="s">
@@ -19723,7 +19783,7 @@
       <c r="A129" s="13">
         <v>130</v>
       </c>
-      <c r="B129" s="45">
+      <c r="B129" s="39">
         <v>1000216023</v>
       </c>
       <c r="C129" s="13" t="s">
@@ -19746,7 +19806,7 @@
       <c r="A130" s="13">
         <v>131</v>
       </c>
-      <c r="B130" s="45">
+      <c r="B130" s="39">
         <v>2224260</v>
       </c>
       <c r="C130" s="13" t="s">
@@ -19769,7 +19829,7 @@
       <c r="A131" s="13">
         <v>132</v>
       </c>
-      <c r="B131" s="45">
+      <c r="B131" s="39">
         <v>2224225</v>
       </c>
       <c r="C131" s="13" t="s">
@@ -19792,7 +19852,7 @@
       <c r="A132" s="13">
         <v>133</v>
       </c>
-      <c r="B132" s="45">
+      <c r="B132" s="39">
         <v>2224653</v>
       </c>
       <c r="C132" s="13" t="s">
@@ -19815,7 +19875,7 @@
       <c r="A133" s="13">
         <v>134</v>
       </c>
-      <c r="B133" s="45">
+      <c r="B133" s="39">
         <v>2214456</v>
       </c>
       <c r="C133" s="13" t="s">
@@ -19838,7 +19898,7 @@
       <c r="A134" s="13">
         <v>135</v>
       </c>
-      <c r="B134" s="45">
+      <c r="B134" s="39">
         <v>2249482</v>
       </c>
       <c r="C134" s="13" t="s">
@@ -19861,7 +19921,7 @@
       <c r="A135" s="13">
         <v>136</v>
       </c>
-      <c r="B135" s="45">
+      <c r="B135" s="39">
         <v>2224196</v>
       </c>
       <c r="C135" s="13" t="s">
@@ -19890,7 +19950,7 @@
       <c r="A136" s="13">
         <v>137</v>
       </c>
-      <c r="B136" s="45">
+      <c r="B136" s="39">
         <v>2244603</v>
       </c>
       <c r="C136" s="13" t="s">
@@ -19913,7 +19973,7 @@
       <c r="A137" s="13">
         <v>138</v>
       </c>
-      <c r="B137" s="45">
+      <c r="B137" s="39">
         <v>2229330</v>
       </c>
       <c r="C137" s="13" t="s">
@@ -19936,7 +19996,7 @@
       <c r="A138" s="13">
         <v>139</v>
       </c>
-      <c r="B138" s="45">
+      <c r="B138" s="39">
         <v>1009395603</v>
       </c>
       <c r="C138" s="13" t="s">
@@ -19965,7 +20025,7 @@
       <c r="A139" s="13">
         <v>140</v>
       </c>
-      <c r="B139" s="45">
+      <c r="B139" s="39">
         <v>2224707</v>
       </c>
       <c r="C139" s="13" t="s">
@@ -19988,7 +20048,7 @@
       <c r="A140" s="13">
         <v>141</v>
       </c>
-      <c r="B140" s="45">
+      <c r="B140" s="39">
         <v>2233062</v>
       </c>
       <c r="C140" s="13" t="s">
@@ -20017,7 +20077,7 @@
       <c r="A141" s="13">
         <v>142</v>
       </c>
-      <c r="B141" s="45">
+      <c r="B141" s="39">
         <v>2224187</v>
       </c>
       <c r="C141" s="13" t="s">
@@ -20040,7 +20100,7 @@
       <c r="A142" s="13">
         <v>143</v>
       </c>
-      <c r="B142" s="45">
+      <c r="B142" s="39">
         <v>2207713</v>
       </c>
       <c r="C142" s="13" t="s">
@@ -20063,7 +20123,7 @@
       <c r="A143" s="13">
         <v>144</v>
       </c>
-      <c r="B143" s="45">
+      <c r="B143" s="39">
         <v>2244412</v>
       </c>
       <c r="C143" s="13" t="s">
@@ -20086,7 +20146,7 @@
       <c r="A144" s="13">
         <v>145</v>
       </c>
-      <c r="B144" s="45">
+      <c r="B144" s="39">
         <v>2229524</v>
       </c>
       <c r="C144" s="13" t="s">
@@ -20109,7 +20169,7 @@
       <c r="A145" s="13">
         <v>146</v>
       </c>
-      <c r="B145" s="45">
+      <c r="B145" s="39">
         <v>2224705</v>
       </c>
       <c r="C145" s="13" t="s">
@@ -20132,7 +20192,7 @@
       <c r="A146" s="13">
         <v>147</v>
       </c>
-      <c r="B146" s="45">
+      <c r="B146" s="39">
         <v>2249480</v>
       </c>
       <c r="C146" s="13" t="s">
@@ -20155,7 +20215,7 @@
       <c r="A147" s="13">
         <v>148</v>
       </c>
-      <c r="B147" s="45">
+      <c r="B147" s="39">
         <v>2229092</v>
       </c>
       <c r="C147" s="13" t="s">
@@ -20178,7 +20238,7 @@
       <c r="A148" s="13">
         <v>149</v>
       </c>
-      <c r="B148" s="45">
+      <c r="B148" s="39">
         <v>2224667</v>
       </c>
       <c r="C148" s="13" t="s">
@@ -20201,7 +20261,7 @@
       <c r="A149" s="13">
         <v>150</v>
       </c>
-      <c r="B149" s="45">
+      <c r="B149" s="39">
         <v>2224637</v>
       </c>
       <c r="C149" s="13" t="s">
@@ -20224,7 +20284,7 @@
       <c r="A150" s="13">
         <v>151</v>
       </c>
-      <c r="B150" s="45">
+      <c r="B150" s="39">
         <v>2224703</v>
       </c>
       <c r="C150" s="13" t="s">
@@ -20247,7 +20307,7 @@
       <c r="A151" s="13">
         <v>152</v>
       </c>
-      <c r="B151" s="45">
+      <c r="B151" s="39">
         <v>2224286</v>
       </c>
       <c r="C151" s="13" t="s">
@@ -20270,7 +20330,7 @@
       <c r="A152" s="13">
         <v>153</v>
       </c>
-      <c r="B152" s="45">
+      <c r="B152" s="39">
         <v>2224253</v>
       </c>
       <c r="C152" s="13" t="s">
@@ -20293,7 +20353,7 @@
       <c r="A153" s="13">
         <v>154</v>
       </c>
-      <c r="B153" s="45">
+      <c r="B153" s="39">
         <v>2224177</v>
       </c>
       <c r="C153" s="13" t="s">
@@ -20316,7 +20376,7 @@
       <c r="A154" s="13">
         <v>155</v>
       </c>
-      <c r="B154" s="45">
+      <c r="B154" s="39">
         <v>2224213</v>
       </c>
       <c r="C154" s="13" t="s">
@@ -20339,7 +20399,7 @@
       <c r="A155" s="13">
         <v>156</v>
       </c>
-      <c r="B155" s="45">
+      <c r="B155" s="39">
         <v>2215020</v>
       </c>
       <c r="C155" s="13" t="s">
@@ -20362,7 +20422,7 @@
       <c r="A156" s="13">
         <v>157</v>
       </c>
-      <c r="B156" s="45">
+      <c r="B156" s="39">
         <v>2244125</v>
       </c>
       <c r="C156" s="13" t="s">
@@ -20385,7 +20445,7 @@
       <c r="A157" s="13">
         <v>158</v>
       </c>
-      <c r="B157" s="45">
+      <c r="B157" s="39">
         <v>2224660</v>
       </c>
       <c r="C157" s="13" t="s">
@@ -20408,7 +20468,7 @@
       <c r="A158" s="13">
         <v>159</v>
       </c>
-      <c r="B158" s="45">
+      <c r="B158" s="39">
         <v>2219017</v>
       </c>
       <c r="C158" s="13" t="s">
@@ -20431,7 +20491,7 @@
       <c r="A159" s="13">
         <v>160</v>
       </c>
-      <c r="B159" s="45">
+      <c r="B159" s="39">
         <v>2224227</v>
       </c>
       <c r="C159" s="13" t="s">
@@ -20454,7 +20514,7 @@
       <c r="A160" s="13">
         <v>161</v>
       </c>
-      <c r="B160" s="45">
+      <c r="B160" s="39">
         <v>2224230</v>
       </c>
       <c r="C160" s="13" t="s">
@@ -20477,7 +20537,7 @@
       <c r="A161" s="13">
         <v>162</v>
       </c>
-      <c r="B161" s="46">
+      <c r="B161" s="40">
         <v>2224236</v>
       </c>
       <c r="C161" s="13" t="s">
@@ -20500,7 +20560,7 @@
       <c r="A162" s="13">
         <v>163</v>
       </c>
-      <c r="B162" s="46">
+      <c r="B162" s="40">
         <v>2224219</v>
       </c>
       <c r="C162" s="13" t="s">
@@ -20523,7 +20583,7 @@
       <c r="A163" s="13">
         <v>164</v>
       </c>
-      <c r="B163" s="45">
+      <c r="B163" s="39">
         <v>2224690</v>
       </c>
       <c r="C163" s="13" t="s">
@@ -20546,7 +20606,7 @@
       <c r="A164" s="13">
         <v>165</v>
       </c>
-      <c r="B164" s="45">
+      <c r="B164" s="39">
         <v>2224245</v>
       </c>
       <c r="C164" s="13" t="s">
@@ -20569,7 +20629,7 @@
       <c r="A165" s="13">
         <v>166</v>
       </c>
-      <c r="B165" s="45">
+      <c r="B165" s="39">
         <v>7018734</v>
       </c>
       <c r="C165" s="13" t="s">
@@ -20598,7 +20658,7 @@
       <c r="A166" s="13">
         <v>167</v>
       </c>
-      <c r="B166" s="45">
+      <c r="B166" s="39">
         <v>2224257</v>
       </c>
       <c r="C166" s="13" t="s">
@@ -20621,7 +20681,7 @@
       <c r="A167" s="13">
         <v>168</v>
       </c>
-      <c r="B167" s="45">
+      <c r="B167" s="39">
         <v>2224681</v>
       </c>
       <c r="C167" s="13" t="s">
@@ -20644,7 +20704,7 @@
       <c r="A168" s="13">
         <v>169</v>
       </c>
-      <c r="B168" s="45">
+      <c r="B168" s="39">
         <v>2247010</v>
       </c>
       <c r="C168" s="13" t="s">
@@ -20667,7 +20727,7 @@
       <c r="A169" s="13">
         <v>170</v>
       </c>
-      <c r="B169" s="45">
+      <c r="B169" s="39">
         <v>2224203</v>
       </c>
       <c r="C169" s="13" t="s">
@@ -20690,7 +20750,7 @@
       <c r="A170" s="13">
         <v>171</v>
       </c>
-      <c r="B170" s="47">
+      <c r="B170" s="41">
         <v>2224638</v>
       </c>
       <c r="C170" s="13" t="s">
@@ -20713,7 +20773,7 @@
       <c r="A171" s="13">
         <v>172</v>
       </c>
-      <c r="B171" s="47">
+      <c r="B171" s="41">
         <v>2224658</v>
       </c>
       <c r="C171" s="13" t="s">
@@ -20736,7 +20796,7 @@
       <c r="A172" s="13">
         <v>173</v>
       </c>
-      <c r="B172" s="45">
+      <c r="B172" s="39">
         <v>2224675</v>
       </c>
       <c r="C172" s="13" t="s">
@@ -20756,8 +20816,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I172" xr:uid="{8187885F-BA8A-49BA-8E2C-CCCEE44067E3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I172">
+  <autoFilter ref="A1:I172"/>
+  <sortState ref="B2:I172">
     <sortCondition ref="G2:G172"/>
     <sortCondition ref="C2:C172"/>
     <sortCondition ref="E2:E172"/>
@@ -20767,7 +20827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B682C03F-6C82-4795-AA96-DA179EFED589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21275,11 +21335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F79DC2-E0B6-43A6-924A-203DD5EF0B23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
@@ -29450,7 +29510,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H347" xr:uid="{13F79DC2-E0B6-43A6-924A-203DD5EF0B23}">
+  <autoFilter ref="A1:H347">
     <filterColumn colId="6">
       <filters>
         <filter val="KGBVS"/>
@@ -29462,7 +29522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA24085-A7E1-44A3-A613-5815C2F4BFF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N168"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
@@ -29549,7 +29609,7 @@
         <v>1025</v>
       </c>
       <c r="G4" s="21" t="str">
-        <f>IFERROR(VLOOKUP(A4,SIMSGOVT,2,FALSE),"")</f>
+        <f t="shared" ref="G4:G9" si="0">IFERROR(VLOOKUP(A4,SIMSGOVT,2,FALSE),"")</f>
         <v>GPS BEERUPADU - 28120205201</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -29591,7 +29651,7 @@
         <v>1025</v>
       </c>
       <c r="G5" s="21" t="str">
-        <f>IFERROR(VLOOKUP(A5,SIMSGOVT,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>GPS PENGUVA - 28120208001</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -29633,7 +29693,7 @@
         <v>1025</v>
       </c>
       <c r="G6" s="21" t="str">
-        <f>IFERROR(VLOOKUP(A6,SIMSGOVT,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>GPS THOTA - 28120200301</v>
       </c>
       <c r="H6" s="21" t="s">
@@ -29675,7 +29735,7 @@
         <v>1025</v>
       </c>
       <c r="G7" s="21" t="str">
-        <f>IFERROR(VLOOKUP(A7,SIMSGOVT,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7" s="21" t="s">
@@ -29717,7 +29777,7 @@
         <v>1025</v>
       </c>
       <c r="G8" s="21" t="str">
-        <f>IFERROR(VLOOKUP(A8,SIMSGOVT,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>MPPS ADDAMGUDA - 28120203501</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -29759,7 +29819,7 @@
         <v>1025</v>
       </c>
       <c r="G9" s="21" t="str">
-        <f>IFERROR(VLOOKUP(A9,SIMSGOVT,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v>MPPS JARNA - 28120209201</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -29829,7 +29889,7 @@
         <v>1028</v>
       </c>
       <c r="G11" s="21" t="str">
-        <f t="shared" ref="G11:G16" si="0">C11&amp;"-"&amp;A11</f>
+        <f t="shared" ref="G11:G16" si="1">C11&amp;"-"&amp;A11</f>
         <v>SESHU KUMARI VANGIPURAM-2224681</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -29858,7 +29918,7 @@
         <v>1028</v>
       </c>
       <c r="G12" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>KONDAGORRI KALYANI-2247113</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -29898,7 +29958,7 @@
         <v>1028</v>
       </c>
       <c r="G13" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PUVVALA DHANALAKSHMI-2245038</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -29940,7 +30000,7 @@
         <v>1028</v>
       </c>
       <c r="G14" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SIRINAIDU KONDAGORRI-2224343</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -29982,7 +30042,7 @@
         <v>1028</v>
       </c>
       <c r="G15" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ANUSHA SAVALASINGU-2249473</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -30024,7 +30084,7 @@
         <v>1028</v>
       </c>
       <c r="G16" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>KRISHNA ARIKA-2224633</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -30101,7 +30161,7 @@
         <v>1026</v>
       </c>
       <c r="G18" s="21" t="str">
-        <f t="shared" ref="G13:G29" si="1">IFERROR(VLOOKUP(A18,SIMSGOVT,2,FALSE),"")</f>
+        <f t="shared" ref="G18:G29" si="2">IFERROR(VLOOKUP(A18,SIMSGOVT,2,FALSE),"")</f>
         <v>MPPS THATISEELA - 28120207201</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -30141,7 +30201,7 @@
         <v>1026</v>
       </c>
       <c r="G19" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GPS KURASINGI - 28120206501</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -30169,7 +30229,7 @@
         <v>1026</v>
       </c>
       <c r="G20" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>GPS LAKKAGUDA - 28120206901</v>
       </c>
       <c r="H20" s="21" t="s">
@@ -30200,7 +30260,7 @@
         <v>1026</v>
       </c>
       <c r="G21" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MPPS CHINAGEESADA-28120208103</v>
       </c>
       <c r="H21" s="21" t="s">
@@ -30209,7 +30269,7 @@
       <c r="J21" s="20" t="s">
         <v>1291</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="37" t="s">
         <v>1033</v>
       </c>
       <c r="L21" s="33" t="s">
@@ -30239,7 +30299,7 @@
         <v>1026</v>
       </c>
       <c r="G22" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MPPS DIGUVADERUVADA - 28120211201</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -30278,7 +30338,7 @@
         <v>1026</v>
       </c>
       <c r="G23" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MPPS GORATI - 28120202401</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -30315,7 +30375,7 @@
         <v>1026</v>
       </c>
       <c r="G24" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MPPS KANASINGI - 28120204701</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -30352,7 +30412,7 @@
         <v>1026</v>
       </c>
       <c r="G25" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MPPS KANNAYYAGUDA - 28120203701</v>
       </c>
       <c r="H25" s="21" t="s">
@@ -30389,7 +30449,7 @@
         <v>1026</v>
       </c>
       <c r="G26" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MPPS MALLUGUDA - 28120204901</v>
       </c>
       <c r="H26" s="21" t="s">
@@ -30428,7 +30488,7 @@
         <v>1026</v>
       </c>
       <c r="G27" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MPPS PUTTAGUDA - 28120203403</v>
       </c>
       <c r="H27" s="21" t="s">
@@ -30467,7 +30527,7 @@
         <v>1026</v>
       </c>
       <c r="G28" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MPPS REGIDI - 28120210801</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -30506,7 +30566,7 @@
         <v>1026</v>
       </c>
       <c r="G29" s="21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MPPS VATHADA - 28120207701</v>
       </c>
       <c r="H29" s="21" t="s">
@@ -30547,10 +30607,10 @@
       <c r="K30" s="22">
         <v>1009395603</v>
       </c>
-      <c r="L30" s="44" t="s">
+      <c r="L30" s="38" t="s">
         <v>1031</v>
       </c>
-      <c r="M30" s="44" t="s">
+      <c r="M30" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -32977,8 +33037,8 @@
       <c r="K168" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E168" xr:uid="{9EA24085-A7E1-44A3-A613-5815C2F4BFF4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:H17">
+  <autoFilter ref="A3:E168"/>
+  <sortState ref="A4:H17">
     <sortCondition descending="1" ref="F4:F17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32987,7 +33047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A9C8D0-A32E-4BD8-8093-D6003E994F5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33106,7 +33166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB5B19D-E23E-4510-BF38-4B31A879B7E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W169"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -33502,113 +33562,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="55" t="s">
         <v>739</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="53" t="s">
         <v>742</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="53" t="s">
         <v>744</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="53" t="s">
         <v>746</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="53" t="s">
         <v>748</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="53" t="s">
         <v>750</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="53" t="s">
         <v>752</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="53" t="s">
         <v>754</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="53" t="s">
         <v>756</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="53" t="s">
         <v>758</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="54"/>
     </row>
     <row r="10" spans="1:23" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -45125,18 +45185,383 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="46" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" s="48" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49">
+        <v>1</v>
+      </c>
+      <c r="B3" s="50">
+        <v>2246707</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>593</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="50">
+        <v>8331994107</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50">
+        <v>2224365</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>621</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="50">
+        <v>8500470262</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49">
+        <v>3</v>
+      </c>
+      <c r="B5" s="50">
+        <v>2224289</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>640</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="50">
+        <v>7382434028</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50">
+        <v>2247087</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>641</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>644</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="50">
+        <v>8500015253</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
+        <v>5</v>
+      </c>
+      <c r="B7" s="50">
+        <v>2249734</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>655</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="50">
+        <v>8332055160</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
+        <v>6</v>
+      </c>
+      <c r="B8" s="50">
+        <v>2244410</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>666</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>667</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="50">
+        <v>9381569702</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="49">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50">
+        <v>2256872</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="50">
+        <v>9398447011</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50">
+        <v>2247181</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>697</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="50">
+        <v>9492090842</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50">
+        <v>4220689</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>706</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>709</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="50">
+        <v>9573067957</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50">
+        <v>2224196</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="50">
+        <v>9441966523</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
+        <v>11</v>
+      </c>
+      <c r="B13" s="50">
+        <v>1009395603</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>650</v>
+      </c>
+      <c r="F13" s="50">
+        <v>8019791086</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
+        <v>12</v>
+      </c>
+      <c r="B14" s="50">
+        <v>2233062</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="50">
+        <v>9440584242</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="51" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
+        <v>13</v>
+      </c>
+      <c r="B15" s="50">
+        <v>7018734</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="50">
+        <v>8328539736</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ACADAMIC MONITORING TEAM 01.08.2023/TASKS/TEACHER ATTENDANCE/ALL TEACHERS IN SIMS AS ON 17082023.xlsx
+++ b/ACADAMIC MONITORING TEAM 01.08.2023/TASKS/TEACHER ATTENDANCE/ALL TEACHERS IN SIMS AS ON 17082023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
@@ -4420,12 +4420,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4435,6 +4429,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15980,7 +15980,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -16763,8 +16763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21336,11 +21336,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H356"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D340" sqref="D340"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21378,7 +21377,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21401,7 +21400,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21424,7 +21423,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21447,7 +21446,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21470,7 +21469,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21493,7 +21492,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21516,7 +21515,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21539,7 +21538,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21562,7 +21561,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -21585,7 +21584,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -21608,7 +21607,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -21631,7 +21630,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -21654,7 +21653,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -21677,7 +21676,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -21700,7 +21699,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21723,7 +21722,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -21746,7 +21745,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -21769,7 +21768,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -21789,7 +21788,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -21812,7 +21811,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -21835,7 +21834,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -21858,7 +21857,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -21881,7 +21880,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -21904,7 +21903,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -21927,7 +21926,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -21950,7 +21949,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -21973,7 +21972,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -21996,7 +21995,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -22019,7 +22018,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -22042,7 +22041,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -22065,7 +22064,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -22088,7 +22087,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -22111,7 +22110,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -22134,7 +22133,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -22157,7 +22156,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -22180,7 +22179,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -22203,7 +22202,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -22226,7 +22225,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -22249,7 +22248,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -22272,7 +22271,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -22295,7 +22294,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -22318,7 +22317,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -22341,7 +22340,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -22364,7 +22363,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -22387,7 +22386,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -22410,7 +22409,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -22433,7 +22432,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -22456,7 +22455,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -22479,7 +22478,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -22502,7 +22501,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -22525,7 +22524,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -22548,7 +22547,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -22571,7 +22570,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -22594,7 +22593,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -22617,7 +22616,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -22640,7 +22639,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -22663,7 +22662,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -22686,7 +22685,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -22709,7 +22708,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -22732,7 +22731,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -22755,7 +22754,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -22778,7 +22777,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -22801,7 +22800,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -22824,7 +22823,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -22847,7 +22846,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -22870,7 +22869,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -22893,7 +22892,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -22916,7 +22915,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -22939,7 +22938,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -22962,7 +22961,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -22985,7 +22984,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -23008,7 +23007,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -23031,7 +23030,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -23054,7 +23053,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -23077,7 +23076,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -23100,7 +23099,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -23123,7 +23122,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -23146,7 +23145,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -23169,7 +23168,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -23192,7 +23191,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -23215,7 +23214,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -23238,7 +23237,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -23261,7 +23260,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -23284,7 +23283,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -23307,7 +23306,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -23330,7 +23329,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -23353,7 +23352,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -23376,7 +23375,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -23399,7 +23398,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -23422,7 +23421,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -23445,7 +23444,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -23468,7 +23467,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -23491,7 +23490,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -23514,7 +23513,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -23537,7 +23536,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -23560,7 +23559,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -23583,7 +23582,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -23606,7 +23605,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -23629,7 +23628,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -23652,7 +23651,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -23675,7 +23674,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -23698,7 +23697,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -23721,7 +23720,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -23744,7 +23743,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -23767,7 +23766,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -23790,7 +23789,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -23813,7 +23812,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -23836,7 +23835,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -23859,7 +23858,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -23882,7 +23881,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -23905,7 +23904,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -23928,7 +23927,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -23951,7 +23950,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -23974,7 +23973,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -23997,7 +23996,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -24020,7 +24019,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -24043,7 +24042,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -24066,7 +24065,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -24089,7 +24088,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -24112,7 +24111,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -24135,7 +24134,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -24158,7 +24157,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -24181,7 +24180,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -24204,7 +24203,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -24227,7 +24226,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -24250,7 +24249,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -24273,7 +24272,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -24296,7 +24295,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -24319,7 +24318,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -24342,7 +24341,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -24365,7 +24364,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -24388,7 +24387,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -24411,7 +24410,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -24434,7 +24433,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -24457,7 +24456,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -24480,7 +24479,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -24503,7 +24502,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -24526,7 +24525,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -24549,7 +24548,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -24572,7 +24571,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -24595,7 +24594,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -24618,7 +24617,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -24641,7 +24640,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -24664,7 +24663,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -24687,7 +24686,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -24710,7 +24709,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -24733,7 +24732,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -24756,7 +24755,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -24779,7 +24778,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -24802,7 +24801,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -24825,7 +24824,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -24848,7 +24847,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -24871,7 +24870,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -24894,7 +24893,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -24917,7 +24916,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -24940,7 +24939,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -24963,7 +24962,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -24986,7 +24985,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -25009,7 +25008,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -25032,7 +25031,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -25055,7 +25054,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -25078,7 +25077,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -25101,7 +25100,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -25124,7 +25123,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -25147,7 +25146,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -25170,7 +25169,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -25193,7 +25192,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -25216,7 +25215,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -25239,7 +25238,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -25262,7 +25261,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -25285,7 +25284,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -25308,7 +25307,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -25331,7 +25330,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -25354,7 +25353,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -25377,7 +25376,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -25400,7 +25399,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -25423,7 +25422,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -25446,7 +25445,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -25469,7 +25468,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -25492,7 +25491,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -25515,7 +25514,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -25538,7 +25537,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -25561,7 +25560,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -25584,7 +25583,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -25607,7 +25606,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -25630,7 +25629,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -25653,7 +25652,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -25676,7 +25675,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -25699,7 +25698,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -25722,7 +25721,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -25745,7 +25744,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -25768,7 +25767,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -25791,7 +25790,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -25814,7 +25813,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -25837,7 +25836,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -25860,7 +25859,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -25883,7 +25882,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -25906,7 +25905,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -25929,7 +25928,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -25952,7 +25951,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -25975,7 +25974,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -25998,7 +25997,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -26021,7 +26020,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -26044,7 +26043,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -26067,7 +26066,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -26090,7 +26089,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -26113,7 +26112,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -26136,7 +26135,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -26159,7 +26158,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -26182,7 +26181,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -26205,7 +26204,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -26228,7 +26227,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -26251,7 +26250,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -26274,7 +26273,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -26297,7 +26296,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -26320,7 +26319,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -26343,7 +26342,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -26366,7 +26365,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -26389,7 +26388,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -26412,7 +26411,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -26435,7 +26434,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -26458,7 +26457,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -26481,7 +26480,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -26504,7 +26503,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -26527,7 +26526,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -26550,7 +26549,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -26573,7 +26572,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -26596,7 +26595,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -26619,7 +26618,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -26642,7 +26641,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -26665,7 +26664,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -26688,7 +26687,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -26711,7 +26710,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -26734,7 +26733,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -26757,7 +26756,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -26780,7 +26779,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -26803,7 +26802,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -26826,7 +26825,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -26849,7 +26848,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -26872,7 +26871,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -26895,7 +26894,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -26918,7 +26917,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -26941,7 +26940,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -26964,7 +26963,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -26987,7 +26986,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -27010,7 +27009,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -27033,7 +27032,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -27056,7 +27055,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -27079,7 +27078,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -27102,7 +27101,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -27125,7 +27124,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -27148,7 +27147,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -27171,7 +27170,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -27194,7 +27193,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -27217,7 +27216,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -27240,7 +27239,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -27263,7 +27262,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -27286,7 +27285,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -27309,7 +27308,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -27332,7 +27331,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -27355,7 +27354,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -27378,7 +27377,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -27401,7 +27400,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -27421,7 +27420,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -27444,7 +27443,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -27467,7 +27466,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -27490,7 +27489,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -27513,7 +27512,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -27536,7 +27535,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -27559,7 +27558,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -27582,7 +27581,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -27605,7 +27604,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -27628,7 +27627,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -27651,7 +27650,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -27674,7 +27673,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -27697,7 +27696,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -27720,7 +27719,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -27743,7 +27742,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -27766,7 +27765,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -27789,7 +27788,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -27812,7 +27811,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -27835,7 +27834,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -27858,7 +27857,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -27881,7 +27880,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -27904,7 +27903,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -27927,7 +27926,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -27950,7 +27949,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -27973,7 +27972,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -27996,7 +27995,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -28019,7 +28018,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -28042,7 +28041,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -28065,7 +28064,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -28088,7 +28087,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -28111,7 +28110,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -28134,7 +28133,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -28157,7 +28156,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -28180,7 +28179,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -28203,7 +28202,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -28226,7 +28225,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -28249,7 +28248,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -28272,7 +28271,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -28295,7 +28294,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -28318,7 +28317,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -28341,7 +28340,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -28364,7 +28363,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -28387,7 +28386,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -28410,7 +28409,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -28433,7 +28432,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -28456,7 +28455,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -28479,7 +28478,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -28502,7 +28501,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -28525,7 +28524,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -28548,7 +28547,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -28571,7 +28570,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -28594,7 +28593,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -28617,7 +28616,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -28640,7 +28639,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -28663,7 +28662,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -28686,7 +28685,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -28709,7 +28708,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -28732,7 +28731,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -28755,7 +28754,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -29510,13 +29509,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H347">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="KGBVS"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H347"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33562,113 +33555,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="53" t="s">
         <v>739</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="57" t="s">
         <v>742</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="57" t="s">
         <v>744</v>
       </c>
-      <c r="G5" s="54"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="57" t="s">
         <v>746</v>
       </c>
-      <c r="D6" s="54"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="57" t="s">
         <v>748</v>
       </c>
-      <c r="G6" s="54"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="1:23" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="57" t="s">
         <v>752</v>
       </c>
-      <c r="G7" s="54"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:23" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="57" t="s">
         <v>754</v>
       </c>
-      <c r="D8" s="54"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="57" t="s">
         <v>756</v>
       </c>
-      <c r="G8" s="54"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="57" t="s">
         <v>758</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:23" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -45185,17 +45178,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B1:I2"/>
     <mergeCell ref="C3:F4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
